--- a/etc/doc/단위테스트결과서/단위테스트결과서(UT-ETP-OP-10).xlsx
+++ b/etc/doc/단위테스트결과서/단위테스트결과서(UT-ETP-OP-10).xlsx
@@ -26,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="101" uniqueCount="64">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="150" uniqueCount="97">
   <si>
     <t>순번</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -287,6 +287,141 @@
   </si>
   <si>
     <t>2. 변경된 내용이 있을시에만 다음단계가 동작되는지 확인한다.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>user/etp/etpOper.js
+user/etp/etpUpload.js
+user/etpinfo/etpOper.xml
+Home9/Etp/Manage/EtpOperPdfEmergencyModifyPop.vue</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1. 업로드 설명팝업이 제대로 노출되는지 확인한다.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>업로드 설명팝업이 노출된다.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>업로드 설명 팝업이 정상 노출됨을 확인한다.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1. 업로드시 ETF 종목코드 가 현재 코드와 다르게 입력하여 오류가 노출됨을 확인한다.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>"ETF 코드를 잘못 입력하셨습니다." 메시지가 노출된다.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>"ETF 코드를 잘못 입력하셨습니다." 메시지가 노출됨을 확인한다.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1. 업로드시 구성종목코드 가 존재하지 않고, 채권 데이터도 아닌 경우 오류가 노출됨을 확인한다.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>"구성종목코드 컬럼이 존재하지 않습니다." 메시지가 노출된다.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>"구성종목코드 컬럼이 존재하지 않습니다." 메시지가 노출됨을 확인한다.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1. 업로드시 CU당 수량을 잘못입력한 경우 오류가 노출됨을 확인한다.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>"액면금액 컬럼은 숫자형만 입력해 주세요." 메시지가 노출된다.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>"액면금액 컬럼은 숫자형만 입력해 주세요." 메시지가 노출됨을 확인한다.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>3.  업로드 설명팝업이 제대로 노출되는지 확인한다.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1. 업로드 설명에서 샘플받기가 정상 동작되는지 확인한다.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>샘풀파일이 다운로드 된다.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>샘풀파일이 다운로드 됨을 확인한다.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>4. 업로드 설명에서 샘플받기가 정상 동작되는지 확인한다.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>5. 업로드시 ETF 종목코드 가 현재 코드와 다르게 입력하여 오류가 노출됨을 확인한다.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>6. 업로드시 구성종목코드 가 존재하지 않고, 채권 데이터도 아닌 경우 오류가 노출됨을 확인한다.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>7. 업로드시 CU당 수량을 잘못입력한 경우 오류가 노출됨을 확인한다.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>"CU당수량 컬럼은 숫자형만 입력해 주세요." 메시지가 노출된다.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>"CU당 수량 컬럼은 숫자형만 입력해 주세요." 메시지가 노출됨을 확인한다.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1. 업로드시 액면금액을 잘못입력한 경우 오류가 노출됨을 확인한다.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1. 업로드시 채권 데이터 인데 종목명을 입력하지 않은 경우 오류가 노출됨을 확인한다.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>"종목명을 입력해 주세요" 메시지가 노출된다.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>8. 업로드시 액면금액을 잘못입력한 경우 오류가 노출됨을 확인한다.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>"종목명을 입력해 주세요" 메시지가 노출됨을 확인한다.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>정상적으로 수정되어 노출된다.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>정상적으로 수정되어 노출됨을 확인한다.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1. 업로드가 정상인 경우 노출이 제대로 됨을 확인한다.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>10. 업로드가 정상인 경우 노출이 제대로 됨을 확인한다.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>9. 업로드시 채권 데이터 인데 종목명을 입력하지 않은 경우 오류가 노출됨을 확인한다.</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -731,13 +866,13 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>3</xdr:col>
-      <xdr:colOff>171450</xdr:colOff>
+      <xdr:colOff>381000</xdr:colOff>
       <xdr:row>11</xdr:row>
-      <xdr:rowOff>3804814</xdr:rowOff>
+      <xdr:rowOff>3877151</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="5" name="그림 4"/>
+        <xdr:cNvPr id="2" name="그림 1"/>
         <xdr:cNvPicPr>
           <a:picLocks noChangeAspect="1"/>
         </xdr:cNvPicPr>
@@ -750,8 +885,8 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="0" y="5610225"/>
-          <a:ext cx="4933950" cy="3804814"/>
+          <a:off x="0" y="1466850"/>
+          <a:ext cx="5143500" cy="3877151"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -765,17 +900,17 @@
       <xdr:col>0</xdr:col>
       <xdr:colOff>0</xdr:colOff>
       <xdr:row>13</xdr:row>
-      <xdr:rowOff>1</xdr:rowOff>
+      <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>3</xdr:col>
-      <xdr:colOff>209550</xdr:colOff>
+      <xdr:colOff>357639</xdr:colOff>
       <xdr:row>13</xdr:row>
-      <xdr:rowOff>3835735</xdr:rowOff>
+      <xdr:rowOff>3819525</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="6" name="그림 5"/>
+        <xdr:cNvPr id="3" name="그림 2"/>
         <xdr:cNvPicPr>
           <a:picLocks noChangeAspect="1"/>
         </xdr:cNvPicPr>
@@ -788,8 +923,345 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
+          <a:off x="0" y="5724525"/>
+          <a:ext cx="5120139" cy="3819525"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>15</xdr:row>
+      <xdr:rowOff>1</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>2133600</xdr:colOff>
+      <xdr:row>15</xdr:row>
+      <xdr:rowOff>3680602</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="4" name="그림 3"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId3"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
           <a:off x="0" y="9867901"/>
-          <a:ext cx="4972050" cy="3835734"/>
+          <a:ext cx="4162425" cy="3680601"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>17</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>396729</xdr:colOff>
+      <xdr:row>17</xdr:row>
+      <xdr:rowOff>3457575</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="7" name="그림 6"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId4"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="0" y="13773150"/>
+          <a:ext cx="5159229" cy="3457575"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>1</xdr:colOff>
+      <xdr:row>19</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>1933576</xdr:colOff>
+      <xdr:row>19</xdr:row>
+      <xdr:rowOff>3035397</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="8" name="그림 7"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId5"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="1" y="17573625"/>
+          <a:ext cx="3962400" cy="3035397"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>1</xdr:colOff>
+      <xdr:row>21</xdr:row>
+      <xdr:rowOff>1</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>2597292</xdr:colOff>
+      <xdr:row>21</xdr:row>
+      <xdr:rowOff>3467101</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="9" name="그림 8"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId6"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="1" y="20878801"/>
+          <a:ext cx="4626116" cy="3467100"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>23</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>2019300</xdr:colOff>
+      <xdr:row>23</xdr:row>
+      <xdr:rowOff>3020793</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="10" name="그림 9"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId7"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="0" y="24679275"/>
+          <a:ext cx="4048125" cy="3020793"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:oneCellAnchor>
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>25</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:ext cx="4048125" cy="3020793"/>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="11" name="그림 10"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId7"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="0" y="24679275"/>
+          <a:ext cx="4048125" cy="3020793"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:oneCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>27</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>1933142</xdr:colOff>
+      <xdr:row>27</xdr:row>
+      <xdr:rowOff>3009900</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="13" name="그림 12"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId8"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="0" y="31289625"/>
+          <a:ext cx="3961967" cy="3009900"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>29</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>1981200</xdr:colOff>
+      <xdr:row>29</xdr:row>
+      <xdr:rowOff>3032392</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="14" name="그림 13"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId9"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="0" y="34594800"/>
+          <a:ext cx="4010025" cy="3032392"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>31</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>2019300</xdr:colOff>
+      <xdr:row>31</xdr:row>
+      <xdr:rowOff>2975919</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="15" name="그림 14"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId10"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="0" y="37899975"/>
+          <a:ext cx="4048125" cy="2975919"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -1064,10 +1536,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A2:J32"/>
+  <dimension ref="A2:J33"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F12" sqref="F12"/>
+      <selection activeCell="C4" sqref="C4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -1177,7 +1649,7 @@
       </c>
       <c r="B6" s="16"/>
       <c r="C6" s="17" t="s">
-        <v>52</v>
+        <v>64</v>
       </c>
       <c r="D6" s="18"/>
       <c r="E6" s="18"/>
@@ -1312,97 +1784,193 @@
       <c r="J12" s="4"/>
     </row>
     <row r="13" spans="1:10" ht="52.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A13" s="5"/>
-      <c r="B13" s="4"/>
-      <c r="C13" s="6"/>
+      <c r="A13" s="5">
+        <v>3</v>
+      </c>
+      <c r="B13" s="4" t="s">
+        <v>26</v>
+      </c>
+      <c r="C13" s="6" t="s">
+        <v>65</v>
+      </c>
       <c r="D13" s="6"/>
-      <c r="E13" s="6"/>
-      <c r="F13" s="6"/>
-      <c r="G13" s="4"/>
+      <c r="E13" s="6" t="s">
+        <v>66</v>
+      </c>
+      <c r="F13" s="6" t="s">
+        <v>67</v>
+      </c>
+      <c r="G13" s="4" t="s">
+        <v>27</v>
+      </c>
       <c r="H13" s="4"/>
       <c r="I13" s="4"/>
       <c r="J13" s="4"/>
     </row>
-    <row r="14" spans="1:10" ht="69" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A14" s="5"/>
-      <c r="B14" s="13"/>
-      <c r="C14" s="6"/>
+    <row r="14" spans="1:10" ht="52.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A14" s="5">
+        <v>4</v>
+      </c>
+      <c r="B14" s="4" t="s">
+        <v>26</v>
+      </c>
+      <c r="C14" s="6" t="s">
+        <v>78</v>
+      </c>
       <c r="D14" s="6"/>
-      <c r="E14" s="6"/>
-      <c r="F14" s="6"/>
-      <c r="G14" s="4"/>
+      <c r="E14" s="6" t="s">
+        <v>79</v>
+      </c>
+      <c r="F14" s="6" t="s">
+        <v>80</v>
+      </c>
+      <c r="G14" s="4" t="s">
+        <v>27</v>
+      </c>
       <c r="H14" s="13"/>
       <c r="I14" s="13"/>
       <c r="J14" s="13"/>
     </row>
     <row r="15" spans="1:10" ht="69" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A15" s="5"/>
-      <c r="B15" s="4"/>
-      <c r="C15" s="6"/>
+      <c r="A15" s="5">
+        <v>5</v>
+      </c>
+      <c r="B15" s="4" t="s">
+        <v>26</v>
+      </c>
+      <c r="C15" s="6" t="s">
+        <v>68</v>
+      </c>
       <c r="D15" s="6"/>
-      <c r="E15" s="6"/>
-      <c r="F15" s="6"/>
-      <c r="G15" s="4"/>
-      <c r="H15" s="4"/>
-      <c r="I15" s="4"/>
-      <c r="J15" s="4"/>
+      <c r="E15" s="6" t="s">
+        <v>69</v>
+      </c>
+      <c r="F15" s="6" t="s">
+        <v>70</v>
+      </c>
+      <c r="G15" s="4" t="s">
+        <v>27</v>
+      </c>
+      <c r="H15" s="13"/>
+      <c r="I15" s="13"/>
+      <c r="J15" s="13"/>
     </row>
     <row r="16" spans="1:10" ht="69" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A16" s="5"/>
-      <c r="B16" s="4"/>
-      <c r="C16" s="6"/>
+      <c r="A16" s="5">
+        <v>6</v>
+      </c>
+      <c r="B16" s="4" t="s">
+        <v>26</v>
+      </c>
+      <c r="C16" s="6" t="s">
+        <v>71</v>
+      </c>
       <c r="D16" s="6"/>
-      <c r="E16" s="6"/>
-      <c r="F16" s="6"/>
-      <c r="G16" s="4"/>
+      <c r="E16" s="6" t="s">
+        <v>72</v>
+      </c>
+      <c r="F16" s="6" t="s">
+        <v>73</v>
+      </c>
+      <c r="G16" s="4" t="s">
+        <v>27</v>
+      </c>
       <c r="H16" s="4"/>
       <c r="I16" s="4"/>
       <c r="J16" s="4"/>
     </row>
-    <row r="17" spans="1:10" ht="66" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A17" s="5"/>
-      <c r="B17" s="4"/>
-      <c r="C17" s="6"/>
-      <c r="D17" s="4"/>
-      <c r="E17" s="4"/>
-      <c r="F17" s="4"/>
-      <c r="G17" s="4"/>
+    <row r="17" spans="1:10" ht="69" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A17" s="5">
+        <v>7</v>
+      </c>
+      <c r="B17" s="4" t="s">
+        <v>26</v>
+      </c>
+      <c r="C17" s="6" t="s">
+        <v>74</v>
+      </c>
+      <c r="D17" s="6"/>
+      <c r="E17" s="6" t="s">
+        <v>85</v>
+      </c>
+      <c r="F17" s="6" t="s">
+        <v>86</v>
+      </c>
+      <c r="G17" s="4" t="s">
+        <v>27</v>
+      </c>
       <c r="H17" s="4"/>
       <c r="I17" s="4"/>
       <c r="J17" s="4"/>
     </row>
     <row r="18" spans="1:10" ht="66" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A18" s="5"/>
-      <c r="B18" s="4"/>
-      <c r="C18" s="6"/>
+      <c r="A18" s="5">
+        <v>8</v>
+      </c>
+      <c r="B18" s="4" t="s">
+        <v>26</v>
+      </c>
+      <c r="C18" s="6" t="s">
+        <v>87</v>
+      </c>
       <c r="D18" s="4"/>
-      <c r="E18" s="4"/>
-      <c r="F18" s="4"/>
-      <c r="G18" s="4"/>
+      <c r="E18" s="6" t="s">
+        <v>75</v>
+      </c>
+      <c r="F18" s="6" t="s">
+        <v>76</v>
+      </c>
+      <c r="G18" s="4" t="s">
+        <v>27</v>
+      </c>
       <c r="H18" s="4"/>
       <c r="I18" s="4"/>
       <c r="J18" s="4"/>
     </row>
     <row r="19" spans="1:10" ht="66" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A19" s="5"/>
-      <c r="B19" s="4"/>
-      <c r="C19" s="6"/>
+      <c r="A19" s="5">
+        <v>9</v>
+      </c>
+      <c r="B19" s="4" t="s">
+        <v>26</v>
+      </c>
+      <c r="C19" s="6" t="s">
+        <v>88</v>
+      </c>
       <c r="D19" s="4"/>
-      <c r="E19" s="4"/>
-      <c r="F19" s="4"/>
-      <c r="G19" s="4"/>
+      <c r="E19" s="6" t="s">
+        <v>89</v>
+      </c>
+      <c r="F19" s="6" t="s">
+        <v>91</v>
+      </c>
+      <c r="G19" s="4" t="s">
+        <v>27</v>
+      </c>
       <c r="H19" s="4"/>
       <c r="I19" s="4"/>
       <c r="J19" s="4"/>
     </row>
     <row r="20" spans="1:10" ht="66" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A20" s="5"/>
-      <c r="B20" s="4"/>
-      <c r="C20" s="6"/>
-      <c r="D20" s="6"/>
-      <c r="E20" s="6"/>
-      <c r="F20" s="6"/>
-      <c r="G20" s="4"/>
+      <c r="A20" s="5">
+        <v>10</v>
+      </c>
+      <c r="B20" s="4" t="s">
+        <v>26</v>
+      </c>
+      <c r="C20" s="6" t="s">
+        <v>94</v>
+      </c>
+      <c r="D20" s="4"/>
+      <c r="E20" s="4" t="s">
+        <v>92</v>
+      </c>
+      <c r="F20" s="6" t="s">
+        <v>93</v>
+      </c>
+      <c r="G20" s="4" t="s">
+        <v>27</v>
+      </c>
       <c r="H20" s="4"/>
       <c r="I20" s="4"/>
       <c r="J20" s="4"/>
@@ -1411,7 +1979,7 @@
       <c r="A21" s="5"/>
       <c r="B21" s="4"/>
       <c r="C21" s="6"/>
-      <c r="D21" s="4"/>
+      <c r="D21" s="6"/>
       <c r="E21" s="6"/>
       <c r="F21" s="6"/>
       <c r="G21" s="4"/>
@@ -1424,8 +1992,8 @@
       <c r="B22" s="4"/>
       <c r="C22" s="6"/>
       <c r="D22" s="4"/>
-      <c r="E22" s="4"/>
-      <c r="F22" s="4"/>
+      <c r="E22" s="6"/>
+      <c r="F22" s="6"/>
       <c r="G22" s="4"/>
       <c r="H22" s="4"/>
       <c r="I22" s="4"/>
@@ -1434,7 +2002,7 @@
     <row r="23" spans="1:10" ht="66" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A23" s="5"/>
       <c r="B23" s="4"/>
-      <c r="C23" s="4"/>
+      <c r="C23" s="6"/>
       <c r="D23" s="4"/>
       <c r="E23" s="4"/>
       <c r="F23" s="4"/>
@@ -1479,7 +2047,7 @@
       <c r="I26" s="4"/>
       <c r="J26" s="4"/>
     </row>
-    <row r="27" spans="1:10" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:10" ht="66" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A27" s="5"/>
       <c r="B27" s="4"/>
       <c r="C27" s="4"/>
@@ -1550,6 +2118,18 @@
       <c r="H32" s="4"/>
       <c r="I32" s="4"/>
       <c r="J32" s="4"/>
+    </row>
+    <row r="33" spans="1:10" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A33" s="5"/>
+      <c r="B33" s="4"/>
+      <c r="C33" s="4"/>
+      <c r="D33" s="4"/>
+      <c r="E33" s="4"/>
+      <c r="F33" s="4"/>
+      <c r="G33" s="4"/>
+      <c r="H33" s="4"/>
+      <c r="I33" s="4"/>
+      <c r="J33" s="4"/>
     </row>
   </sheetData>
   <mergeCells count="23">
@@ -1588,7 +2168,7 @@
   <dimension ref="A2:J20"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C7" sqref="C7:J7"/>
+      <selection activeCell="B25" sqref="B25"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -1941,10 +2521,10 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:J33"/>
+  <dimension ref="A1:J39"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A14" sqref="A14:J14"/>
+      <selection activeCell="C3" sqref="C3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -2132,7 +2712,9 @@
       <c r="J14" s="37"/>
     </row>
     <row r="15" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A15" s="24"/>
+      <c r="A15" s="24" t="s">
+        <v>77</v>
+      </c>
       <c r="B15" s="18"/>
       <c r="C15" s="18"/>
       <c r="D15" s="18"/>
@@ -2156,7 +2738,9 @@
       <c r="J16" s="37"/>
     </row>
     <row r="17" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A17" s="24"/>
+      <c r="A17" s="24" t="s">
+        <v>81</v>
+      </c>
       <c r="B17" s="18"/>
       <c r="C17" s="18"/>
       <c r="D17" s="18"/>
@@ -2180,7 +2764,9 @@
       <c r="J18" s="37"/>
     </row>
     <row r="19" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A19" s="24"/>
+      <c r="A19" s="24" t="s">
+        <v>82</v>
+      </c>
       <c r="B19" s="18"/>
       <c r="C19" s="18"/>
       <c r="D19" s="18"/>
@@ -2204,7 +2790,9 @@
       <c r="J20" s="37"/>
     </row>
     <row r="21" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A21" s="24"/>
+      <c r="A21" s="24" t="s">
+        <v>83</v>
+      </c>
       <c r="B21" s="18"/>
       <c r="C21" s="18"/>
       <c r="D21" s="18"/>
@@ -2228,7 +2816,9 @@
       <c r="J22" s="37"/>
     </row>
     <row r="23" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A23" s="24"/>
+      <c r="A23" s="24" t="s">
+        <v>84</v>
+      </c>
       <c r="B23" s="18"/>
       <c r="C23" s="18"/>
       <c r="D23" s="18"/>
@@ -2252,7 +2842,9 @@
       <c r="J24" s="37"/>
     </row>
     <row r="25" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A25" s="24"/>
+      <c r="A25" s="24" t="s">
+        <v>84</v>
+      </c>
       <c r="B25" s="18"/>
       <c r="C25" s="18"/>
       <c r="D25" s="18"/>
@@ -2263,7 +2855,7 @@
       <c r="I25" s="18"/>
       <c r="J25" s="19"/>
     </row>
-    <row r="26" spans="1:10" ht="277.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:10" ht="243.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A26" s="35"/>
       <c r="B26" s="36"/>
       <c r="C26" s="36"/>
@@ -2275,92 +2867,173 @@
       <c r="I26" s="36"/>
       <c r="J26" s="37"/>
     </row>
-    <row r="27" spans="1:10" ht="246.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A27" s="41"/>
-      <c r="B27" s="42"/>
-      <c r="C27" s="42"/>
-      <c r="D27" s="42"/>
-      <c r="E27" s="42"/>
-      <c r="F27" s="42"/>
-      <c r="G27" s="42"/>
-      <c r="H27" s="42"/>
-      <c r="I27" s="42"/>
-      <c r="J27" s="43"/>
-    </row>
-    <row r="28" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A28" s="24"/>
-      <c r="B28" s="18"/>
-      <c r="C28" s="18"/>
-      <c r="D28" s="18"/>
-      <c r="E28" s="18"/>
-      <c r="F28" s="18"/>
-      <c r="G28" s="18"/>
-      <c r="H28" s="18"/>
-      <c r="I28" s="18"/>
-      <c r="J28" s="19"/>
-    </row>
-    <row r="29" spans="1:10" ht="282.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A29" s="35"/>
-      <c r="B29" s="36"/>
-      <c r="C29" s="36"/>
-      <c r="D29" s="36"/>
-      <c r="E29" s="36"/>
-      <c r="F29" s="36"/>
-      <c r="G29" s="36"/>
-      <c r="H29" s="36"/>
-      <c r="I29" s="36"/>
-      <c r="J29" s="37"/>
-    </row>
-    <row r="30" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A30" s="24"/>
-      <c r="B30" s="18"/>
-      <c r="C30" s="18"/>
-      <c r="D30" s="18"/>
-      <c r="E30" s="18"/>
-      <c r="F30" s="18"/>
-      <c r="G30" s="18"/>
-      <c r="H30" s="18"/>
-      <c r="I30" s="18"/>
-      <c r="J30" s="19"/>
-    </row>
-    <row r="31" spans="1:10" ht="282.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A31" s="35"/>
-      <c r="B31" s="36"/>
-      <c r="C31" s="36"/>
-      <c r="D31" s="36"/>
-      <c r="E31" s="36"/>
-      <c r="F31" s="36"/>
-      <c r="G31" s="36"/>
-      <c r="H31" s="36"/>
-      <c r="I31" s="36"/>
-      <c r="J31" s="37"/>
-    </row>
-    <row r="32" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A32" s="24"/>
-      <c r="B32" s="18"/>
-      <c r="C32" s="18"/>
-      <c r="D32" s="18"/>
-      <c r="E32" s="18"/>
-      <c r="F32" s="18"/>
-      <c r="G32" s="18"/>
-      <c r="H32" s="18"/>
-      <c r="I32" s="18"/>
-      <c r="J32" s="19"/>
-    </row>
-    <row r="33" spans="1:10" ht="282.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A33" s="38"/>
-      <c r="B33" s="39"/>
-      <c r="C33" s="39"/>
-      <c r="D33" s="39"/>
-      <c r="E33" s="39"/>
-      <c r="F33" s="39"/>
-      <c r="G33" s="39"/>
-      <c r="H33" s="39"/>
-      <c r="I33" s="39"/>
-      <c r="J33" s="40"/>
+    <row r="27" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A27" s="24" t="s">
+        <v>90</v>
+      </c>
+      <c r="B27" s="18"/>
+      <c r="C27" s="18"/>
+      <c r="D27" s="18"/>
+      <c r="E27" s="18"/>
+      <c r="F27" s="18"/>
+      <c r="G27" s="18"/>
+      <c r="H27" s="18"/>
+      <c r="I27" s="18"/>
+      <c r="J27" s="19"/>
+    </row>
+    <row r="28" spans="1:10" ht="243.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A28" s="35"/>
+      <c r="B28" s="36"/>
+      <c r="C28" s="36"/>
+      <c r="D28" s="36"/>
+      <c r="E28" s="36"/>
+      <c r="F28" s="36"/>
+      <c r="G28" s="36"/>
+      <c r="H28" s="36"/>
+      <c r="I28" s="36"/>
+      <c r="J28" s="37"/>
+    </row>
+    <row r="29" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A29" s="24" t="s">
+        <v>96</v>
+      </c>
+      <c r="B29" s="18"/>
+      <c r="C29" s="18"/>
+      <c r="D29" s="18"/>
+      <c r="E29" s="18"/>
+      <c r="F29" s="18"/>
+      <c r="G29" s="18"/>
+      <c r="H29" s="18"/>
+      <c r="I29" s="18"/>
+      <c r="J29" s="19"/>
+    </row>
+    <row r="30" spans="1:10" ht="243.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A30" s="35"/>
+      <c r="B30" s="36"/>
+      <c r="C30" s="36"/>
+      <c r="D30" s="36"/>
+      <c r="E30" s="36"/>
+      <c r="F30" s="36"/>
+      <c r="G30" s="36"/>
+      <c r="H30" s="36"/>
+      <c r="I30" s="36"/>
+      <c r="J30" s="37"/>
+    </row>
+    <row r="31" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A31" s="24" t="s">
+        <v>95</v>
+      </c>
+      <c r="B31" s="18"/>
+      <c r="C31" s="18"/>
+      <c r="D31" s="18"/>
+      <c r="E31" s="18"/>
+      <c r="F31" s="18"/>
+      <c r="G31" s="18"/>
+      <c r="H31" s="18"/>
+      <c r="I31" s="18"/>
+      <c r="J31" s="19"/>
+    </row>
+    <row r="32" spans="1:10" ht="246" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A32" s="38"/>
+      <c r="B32" s="39"/>
+      <c r="C32" s="39"/>
+      <c r="D32" s="39"/>
+      <c r="E32" s="39"/>
+      <c r="F32" s="39"/>
+      <c r="G32" s="39"/>
+      <c r="H32" s="39"/>
+      <c r="I32" s="39"/>
+      <c r="J32" s="40"/>
+    </row>
+    <row r="33" spans="1:10" ht="246.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A33" s="41"/>
+      <c r="B33" s="42"/>
+      <c r="C33" s="42"/>
+      <c r="D33" s="42"/>
+      <c r="E33" s="42"/>
+      <c r="F33" s="42"/>
+      <c r="G33" s="42"/>
+      <c r="H33" s="42"/>
+      <c r="I33" s="42"/>
+      <c r="J33" s="43"/>
+    </row>
+    <row r="34" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A34" s="24"/>
+      <c r="B34" s="18"/>
+      <c r="C34" s="18"/>
+      <c r="D34" s="18"/>
+      <c r="E34" s="18"/>
+      <c r="F34" s="18"/>
+      <c r="G34" s="18"/>
+      <c r="H34" s="18"/>
+      <c r="I34" s="18"/>
+      <c r="J34" s="19"/>
+    </row>
+    <row r="35" spans="1:10" ht="282.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A35" s="35"/>
+      <c r="B35" s="36"/>
+      <c r="C35" s="36"/>
+      <c r="D35" s="36"/>
+      <c r="E35" s="36"/>
+      <c r="F35" s="36"/>
+      <c r="G35" s="36"/>
+      <c r="H35" s="36"/>
+      <c r="I35" s="36"/>
+      <c r="J35" s="37"/>
+    </row>
+    <row r="36" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A36" s="24"/>
+      <c r="B36" s="18"/>
+      <c r="C36" s="18"/>
+      <c r="D36" s="18"/>
+      <c r="E36" s="18"/>
+      <c r="F36" s="18"/>
+      <c r="G36" s="18"/>
+      <c r="H36" s="18"/>
+      <c r="I36" s="18"/>
+      <c r="J36" s="19"/>
+    </row>
+    <row r="37" spans="1:10" ht="282.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A37" s="35"/>
+      <c r="B37" s="36"/>
+      <c r="C37" s="36"/>
+      <c r="D37" s="36"/>
+      <c r="E37" s="36"/>
+      <c r="F37" s="36"/>
+      <c r="G37" s="36"/>
+      <c r="H37" s="36"/>
+      <c r="I37" s="36"/>
+      <c r="J37" s="37"/>
+    </row>
+    <row r="38" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A38" s="24"/>
+      <c r="B38" s="18"/>
+      <c r="C38" s="18"/>
+      <c r="D38" s="18"/>
+      <c r="E38" s="18"/>
+      <c r="F38" s="18"/>
+      <c r="G38" s="18"/>
+      <c r="H38" s="18"/>
+      <c r="I38" s="18"/>
+      <c r="J38" s="19"/>
+    </row>
+    <row r="39" spans="1:10" ht="282.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A39" s="38"/>
+      <c r="B39" s="39"/>
+      <c r="C39" s="39"/>
+      <c r="D39" s="39"/>
+      <c r="E39" s="39"/>
+      <c r="F39" s="39"/>
+      <c r="G39" s="39"/>
+      <c r="H39" s="39"/>
+      <c r="I39" s="39"/>
+      <c r="J39" s="40"/>
     </row>
   </sheetData>
-  <mergeCells count="29">
+  <mergeCells count="35">
+    <mergeCell ref="A29:J29"/>
+    <mergeCell ref="A30:J30"/>
+    <mergeCell ref="A31:J31"/>
     <mergeCell ref="A2:B2"/>
     <mergeCell ref="A3:B3"/>
     <mergeCell ref="A12:J12"/>
@@ -2382,14 +3055,17 @@
     <mergeCell ref="A23:J23"/>
     <mergeCell ref="A24:J24"/>
     <mergeCell ref="A25:J25"/>
-    <mergeCell ref="A31:J31"/>
-    <mergeCell ref="A32:J32"/>
-    <mergeCell ref="A33:J33"/>
     <mergeCell ref="A26:J26"/>
     <mergeCell ref="A27:J27"/>
     <mergeCell ref="A28:J28"/>
-    <mergeCell ref="A29:J29"/>
-    <mergeCell ref="A30:J30"/>
+    <mergeCell ref="A37:J37"/>
+    <mergeCell ref="A38:J38"/>
+    <mergeCell ref="A39:J39"/>
+    <mergeCell ref="A32:J32"/>
+    <mergeCell ref="A33:J33"/>
+    <mergeCell ref="A34:J34"/>
+    <mergeCell ref="A35:J35"/>
+    <mergeCell ref="A36:J36"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/etc/doc/단위테스트결과서/단위테스트결과서(UT-ETP-OP-10).xlsx
+++ b/etc/doc/단위테스트결과서/단위테스트결과서(UT-ETP-OP-10).xlsx
@@ -26,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="150" uniqueCount="97">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="214" uniqueCount="132">
   <si>
     <t>순번</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -137,10 +137,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>PASS</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>공통</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -216,10 +212,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>test@koscom.co.kr</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>ETP</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -236,37 +228,11 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>user/etp/etpOper.js
-user/etpinfo/etpOper.xml
-Home9/Etp/Manage/EtpOperPdfEmergencyModifyPop.vue</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>ETF PDF 변경</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>ETF PDF 변경</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>1. 주식수 변경시 평가금액이 제대로 수정되는지 확인한다.</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>주식수 변경시 평가금액이 제대로 수정된다.</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>변경된 내용이 있을시에만 다음단계가 동작된다.</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>주식수 변경시 평가금액이 제대로 수정됨을 확인한다.</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>변경된 내용이 있을시에만 다음단계가 동작됨을 확인한다.</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
@@ -282,10 +248,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>1. 주식수 변경시 평가금액이 제대로 수정되는지 확인한다.</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>2. 변경된 내용이 있을시에만 다음단계가 동작되는지 확인한다.</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -301,127 +263,348 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>업로드 설명팝업이 노출된다.</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>업로드 설명 팝업이 정상 노출됨을 확인한다.</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>1. 업로드시 ETF 종목코드 가 현재 코드와 다르게 입력하여 오류가 노출됨을 확인한다.</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>"ETF 코드를 잘못 입력하셨습니다." 메시지가 노출된다.</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>"ETF 코드를 잘못 입력하셨습니다." 메시지가 노출됨을 확인한다.</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>1. 업로드시 구성종목코드 가 존재하지 않고, 채권 데이터도 아닌 경우 오류가 노출됨을 확인한다.</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>"구성종목코드 컬럼이 존재하지 않습니다." 메시지가 노출된다.</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>"구성종목코드 컬럼이 존재하지 않습니다." 메시지가 노출됨을 확인한다.</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>1. 업로드시 CU당 수량을 잘못입력한 경우 오류가 노출됨을 확인한다.</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>"액면금액 컬럼은 숫자형만 입력해 주세요." 메시지가 노출된다.</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>"액면금액 컬럼은 숫자형만 입력해 주세요." 메시지가 노출됨을 확인한다.</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>3.  업로드 설명팝업이 제대로 노출되는지 확인한다.</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>1. 업로드 설명에서 샘플받기가 정상 동작되는지 확인한다.</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>샘풀파일이 다운로드 된다.</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>샘풀파일이 다운로드 됨을 확인한다.</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>4. 업로드 설명에서 샘플받기가 정상 동작되는지 확인한다.</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>5. 업로드시 ETF 종목코드 가 현재 코드와 다르게 입력하여 오류가 노출됨을 확인한다.</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>6. 업로드시 구성종목코드 가 존재하지 않고, 채권 데이터도 아닌 경우 오류가 노출됨을 확인한다.</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>7. 업로드시 CU당 수량을 잘못입력한 경우 오류가 노출됨을 확인한다.</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>"CU당수량 컬럼은 숫자형만 입력해 주세요." 메시지가 노출된다.</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>"CU당 수량 컬럼은 숫자형만 입력해 주세요." 메시지가 노출됨을 확인한다.</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>1. 업로드시 액면금액을 잘못입력한 경우 오류가 노출됨을 확인한다.</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>1. 업로드시 채권 데이터 인데 종목명을 입력하지 않은 경우 오류가 노출됨을 확인한다.</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>"종목명을 입력해 주세요" 메시지가 노출된다.</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>8. 업로드시 액면금액을 잘못입력한 경우 오류가 노출됨을 확인한다.</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>"종목명을 입력해 주세요" 메시지가 노출됨을 확인한다.</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>정상적으로 수정되어 노출된다.</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>정상적으로 수정되어 노출됨을 확인한다.</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>1. 업로드가 정상인 경우 노출이 제대로 됨을 확인한다.</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>10. 업로드가 정상인 경우 노출이 제대로 됨을 확인한다.</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>9. 업로드시 채권 데이터 인데 종목명을 입력하지 않은 경우 오류가 노출됨을 확인한다.</t>
+    <t>1. 업로드시 CU당 수량을 음수 입력한 경우 정상적으로 업로드 됨을 확인한다.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1. 업로드시 구성종목코드가 DB에 존재하지 않고, 
+[
+"KR1", "KR3", "KR6", "CASH00000001", "KRD010010001", "USDZZ0000001", "JPYZZ0000001"
+]
+이 포함되어 있지 않은 경우 오류가 노출됨을 확인한다.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>CU shrs 만 수정 한 후 Next 버튼 누를시 변경현황이 노출됨을 확인한다.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>CU shrs 에 음수 입력 후 Next 버튼 누를시 변경현황이 노출됨을 확인한다.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>액면금액 수정 한 후 Next 버튼 누를시 변경현황이 노출됨을 확인한다.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>액면금액에 음수 입력 후 Next 버튼 누를시 변경현황이 노출됨을 확인한다.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>아이디: test@koscom.co.kr
+단축코드: 138244
+종목명: KOSEF 미국달러선물</t>
+  </si>
+  <si>
+    <t>CU shrs 와 액면금액 둘다 수정 한 후 Next 버튼 누를시 변경현황이 노출됨을 확인한다.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1. 업로드시 비어있는 열이 존재하는 경우 메시지가 노출되는지 확인한다.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1. 업로드시 ETF 종목코드 가 현재 코드와 다르게 입력하여 오류가 노출되는지 확인한다.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1. CU shrs 와 액면금액 둘다 수정 한 후 Next 버튼 누를시 변경현황이 노출되는지 확인한다.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1. CU shrs 에 음수 입력 후 Next 버튼 누를시 변경현황이 노출되는지 확인한다.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1. CU shrs 만 수정 한 후 Next 버튼 누를시 변경현황이 노출되는지 확인한다.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1. 액면금액 수정 한 후 Next 버튼 누를시 변경현황이 노출되는지 확인한다.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1. 액면금액에 음수 입력 후 Next 버튼 누를시 변경현황이 노출되는지 확인한다.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1. 업로드시 CU당 수량을 잘못입력한 경우 오류가 노출되는지 확인한다.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1. 업로드시 액면금액을 잘못입력한 경우 오류가 노출되는지 확인한다.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1. 업로드시 액면금액을 음수 입력한 경우 정상적으로 업로드 되는지 확인한다.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1. 업로드가 정상인 경우 정상적으로 업로드 되는지 확인한다.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>업로드시 액면금액을 음수 입력한 경우 정상적으로 업로드 되는지 확인한다.</t>
+  </si>
+  <si>
+    <t>업로드가 정상인 경우 정상적으로 업로드 되는지 확인한다.</t>
+  </si>
+  <si>
+    <t>변경된 내용이 있을시에만 다음단계가 동작된다.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>변경된 내용이 있을시에만 다음단계가 동작됨을 확인한다.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>CU shrs 만 수정 한 후 Next 버튼 누를시 변경현황이 노출된다.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>CU shrs 에 음수 입력 후 Next 버튼 누를시 변경현황이 노출된다.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>액면금액 수정 한 후 Next 버튼 누를시 변경현황이 노출된다.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>액면금액에 음수 입력 후 Next 버튼 누를시 변경현황이 노출된다.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>CU shrs 와 액면금액 둘다 수정 한 후 Next 버튼 누를시 변경현황이 노출된다.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>업로드 설명팝업이 제대로 노출된다.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>업로드 설명팝업이 제대로 노출됨을 확인한다.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>업로드 설명에서 샘플받기가 정상 동작된다.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>업로드 설명에서 샘플받기가 정상 동작됨을 확인한다.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>업로드시 비어있는 열이 존재하는 경우 메시지가 노출된다.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>업로드시 비어있는 열이 존재하는 경우 메시지가 노출됨을 확인한다.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>업로드시 ETF 종목코드 가 현재 코드와 다르게 입력하여 오류가 노출된다.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>업로드시 ETF 종목코드 가 현재 코드와 다르게 입력하여 오류가 노출됨을 확인한다.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>업로드시 구성종목코드가 DB에 존재하지 않고, _x000D_
+[_x000D_
+"KR1", "KR3", "KR6", "CASH00000001", "KRD010010001", "USDZZ0000001", "JPYZZ0000001"_x000D_
+]_x000D_
+이 포함되어 있지 않은 경우 오류가 노출된다.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>업로드시 구성종목코드가 DB에 존재하지 않고, _x000D_
+[_x000D_
+"KR1", "KR3", "KR6", "CASH00000001", "KRD010010001", "USDZZ0000001", "JPYZZ0000001"_x000D_
+]_x000D_
+이 포함되어 있지 않은 경우 오류가 노출됨을 확인한다.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>업로드시 CU당 수량을 잘못입력한 경우 오류가 노출된다.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>업로드시 CU당 수량을 잘못입력한 경우 오류가 노출됨을 확인한다.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>업로드시 CU당 수량을 음수 입력한 경우 정상적으로 업로드 된다.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>업로드시 CU당 수량을 음수 입력한 경우 정상적으로 업로드 됨을 확인한다.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>업로드시 액면금액을 잘못입력한 경우 오류가 노출된다.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>업로드시 액면금액을 잘못입력한 경우 오류가 노출됨을 확인한다.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>업로드시 액면금액을 음수 입력한 경우 정상적으로 업로드 된다.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>업로드가 정상인 경우 정상적으로 업로드 됨을 확인한다.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>주식수 변경시 평가금액이 제대로 변경됨을 확인한다.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1. 주식수 변경시 평가금액이 제대로 변경되는지 확인한다.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>주식수 변경시 평가금액이 제대로 변경된다.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ETF PDF 변경 팝업 정보를 조회한다.
+1. 주요점검 항목
+  - 주식수 변경시 평가금액이 제대로 수정되는지 확인한다.
+  - 변경된 내용이 있을시에만 다음단계가 동작되는지 확인한다.
+  - 엑셀업로드시 정상적으로 업로드 되는지 확인한다.
+2. 테스트전 사전 준비 사항(선행 및 데이터)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>3. CU shrs 만 수정 한 후 Next 버튼 누를시 변경현황이 노출되는지 확인한다.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>4. CU shrs 에 음수 입력 후 Next 버튼 누를시 변경현황이 노출되는지 확인한다.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>5. 액면금액 수정 한 후 Next 버튼 누를시 변경현황이 노출되는지 확인한다.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>6. 액면금액에 음수 입력 후 Next 버튼 누를시 변경현황이 노출되는지 확인한다.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>7. CU shrs 와 액면금액 둘다 수정 한 후 Next 버튼 누를시 변경현황이 노출되는지 확인한다.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>8.  업로드 설명팝업이 제대로 노출되는지 확인한다.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>9. 업로드 설명에서 샘플받기가 정상 동작되는지 확인한다.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>10. 업로드시 비어있는 열이 존재하는 경우 메시지가 노출되는지 확인한다.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>11. 업로드시 ETF 종목코드 가 현재 코드와 다르게 입력하여 오류가 노출되는지 확인한다.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>12. 업로드시 구성종목코드가 DB에 존재하지 않고, 
+[
+""KR1"", ""KR3"", ""KR6"", ""CASH00000001"", ""KRD010010001"", ""USDZZ0000001"", ""JPYZZ0000001""
+]
+이 포함되어 있지 않은 경우 오류가 노출됨을 확인한다.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>14. 업로드시 CU당 수량을 잘못입력한 경우 오류가 노출되는지 확인한다.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>15. 업로드시 CU당 수량을 음수 입력한 경우 정상적으로 업로드 됨을 확인한다.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>16. 업로드시 액면금액을 잘못입력한 경우 오류가 노출되는지 확인한다.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>17. 업로드시 액면금액을 음수 입력한 경우 정상적으로 업로드 되는지 확인한다.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>18. 업로드가 정상인 경우 정상적으로 업로드 되는지 확인한다.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>아이디: test@koscom.co.kr
+단축코드: 138230
+종목명: KOSEF 미국달러선물</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>아이디: test@koscom.co.kr
+단축코드: 138230
+종목명: KOSEF 미국달러선물</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>아이디: test@koscom.co.kr
+단축코드: 138230
+종목명: KOSEF 미국달러선물</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>13. 업로드시 구성종목코드가 DB에 존재하지 않고, 
+[
+""KR1"", ""KR3"", ""KR6"", ""CASH00000001"", ""KRD010010001"", ""USDZZ0000001"", ""JPYZZ0000001""
+]
+이 포함되어 있는데 종목명을 입력하지 않은 경우 메시지가 노출되는지 확인한다.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1. 업로드시 구성종목코드가 DB에 존재하지 않고, 
+[
+"KR1", "KR3", "KR6", "CASH00000001", "KRD010010001", "USDZZ0000001", "JPYZZ0000001"
+]
+이 포함되어 있는데 종목명을 입력하지 않은 경우 메시지가 노출되는지 확인한다.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>업로드시 구성종목코드가 DB에 존재하지 않고, _x000D_
+[_x000D_
+"KR1", "KR3", "KR6", "CASH00000001", "KRD010010001", "USDZZ0000001", "JPYZZ0000001"_x000D_
+]_x000D_
+이 포함되어 있는데 종목명을 입력하지 않은 경우 메시지가 노출된다.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>업로드시 구성종목코드가 DB에 존재하지 않고, _x000D_
+[_x000D_
+"KR1", "KR3", "KR6", "CASH00000001", "KRD010010001", "USDZZ0000001", "JPYZZ0000001"_x000D_
+]_x000D_
+이 포함되어 있는데 종목명을 입력하지 않은 경우 메시지가 노출됨을 확인한다.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>PASS</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>user/etp/etpOper.js
+user/etp/etpUpload.js
+user/etpinfo/etpOper.xml
+Home/Etp/Manage/EtpOperPdfEmergencyModifyPop.vue</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -668,7 +851,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="47">
+  <cellXfs count="44">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -791,15 +974,6 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
@@ -937,13 +1111,13 @@
     <xdr:from>
       <xdr:col>0</xdr:col>
       <xdr:colOff>0</xdr:colOff>
-      <xdr:row>15</xdr:row>
+      <xdr:row>25</xdr:row>
       <xdr:rowOff>1</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>2</xdr:col>
       <xdr:colOff>2133600</xdr:colOff>
-      <xdr:row>15</xdr:row>
+      <xdr:row>25</xdr:row>
       <xdr:rowOff>3680602</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
@@ -975,13 +1149,13 @@
     <xdr:from>
       <xdr:col>0</xdr:col>
       <xdr:colOff>0</xdr:colOff>
-      <xdr:row>17</xdr:row>
+      <xdr:row>27</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>3</xdr:col>
       <xdr:colOff>396729</xdr:colOff>
-      <xdr:row>17</xdr:row>
+      <xdr:row>27</xdr:row>
       <xdr:rowOff>3457575</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
@@ -1013,18 +1187,18 @@
     <xdr:from>
       <xdr:col>0</xdr:col>
       <xdr:colOff>1</xdr:colOff>
-      <xdr:row>19</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
+      <xdr:row>15</xdr:row>
+      <xdr:rowOff>1</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>2</xdr:col>
-      <xdr:colOff>1933576</xdr:colOff>
-      <xdr:row>19</xdr:row>
-      <xdr:rowOff>3035397</xdr:rowOff>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>190501</xdr:colOff>
+      <xdr:row>15</xdr:row>
+      <xdr:rowOff>2971801</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="8" name="그림 7"/>
+        <xdr:cNvPr id="5" name="그림 4"/>
         <xdr:cNvPicPr>
           <a:picLocks noChangeAspect="1"/>
         </xdr:cNvPicPr>
@@ -1037,8 +1211,84 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="1" y="17573625"/>
-          <a:ext cx="3962400" cy="3035397"/>
+          <a:off x="1" y="9867901"/>
+          <a:ext cx="4953000" cy="2971800"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>17</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>2627395</xdr:colOff>
+      <xdr:row>17</xdr:row>
+      <xdr:rowOff>2809875</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="6" name="그림 5"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId6"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="0" y="13144500"/>
+          <a:ext cx="4656220" cy="2809875"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>1</xdr:colOff>
+      <xdr:row>19</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>2638426</xdr:colOff>
+      <xdr:row>19</xdr:row>
+      <xdr:rowOff>2802366</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="8" name="그림 7"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId7"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="1" y="16268700"/>
+          <a:ext cx="4667250" cy="2802366"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -1052,126 +1302,17 @@
       <xdr:col>0</xdr:col>
       <xdr:colOff>1</xdr:colOff>
       <xdr:row>21</xdr:row>
-      <xdr:rowOff>1</xdr:rowOff>
+      <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>2</xdr:col>
-      <xdr:colOff>2597292</xdr:colOff>
+      <xdr:colOff>2657475</xdr:colOff>
       <xdr:row>21</xdr:row>
-      <xdr:rowOff>3467101</xdr:rowOff>
+      <xdr:rowOff>2838039</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
         <xdr:cNvPr id="9" name="그림 8"/>
-        <xdr:cNvPicPr>
-          <a:picLocks noChangeAspect="1"/>
-        </xdr:cNvPicPr>
-      </xdr:nvPicPr>
-      <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId6"/>
-        <a:stretch>
-          <a:fillRect/>
-        </a:stretch>
-      </xdr:blipFill>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="1" y="20878801"/>
-          <a:ext cx="4626116" cy="3467100"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-      </xdr:spPr>
-    </xdr:pic>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor editAs="oneCell">
-    <xdr:from>
-      <xdr:col>0</xdr:col>
-      <xdr:colOff>0</xdr:colOff>
-      <xdr:row>23</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>2</xdr:col>
-      <xdr:colOff>2019300</xdr:colOff>
-      <xdr:row>23</xdr:row>
-      <xdr:rowOff>3020793</xdr:rowOff>
-    </xdr:to>
-    <xdr:pic>
-      <xdr:nvPicPr>
-        <xdr:cNvPr id="10" name="그림 9"/>
-        <xdr:cNvPicPr>
-          <a:picLocks noChangeAspect="1"/>
-        </xdr:cNvPicPr>
-      </xdr:nvPicPr>
-      <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId7"/>
-        <a:stretch>
-          <a:fillRect/>
-        </a:stretch>
-      </xdr:blipFill>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="0" y="24679275"/>
-          <a:ext cx="4048125" cy="3020793"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-      </xdr:spPr>
-    </xdr:pic>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:oneCellAnchor>
-    <xdr:from>
-      <xdr:col>0</xdr:col>
-      <xdr:colOff>0</xdr:colOff>
-      <xdr:row>25</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
-    </xdr:from>
-    <xdr:ext cx="4048125" cy="3020793"/>
-    <xdr:pic>
-      <xdr:nvPicPr>
-        <xdr:cNvPr id="11" name="그림 10"/>
-        <xdr:cNvPicPr>
-          <a:picLocks noChangeAspect="1"/>
-        </xdr:cNvPicPr>
-      </xdr:nvPicPr>
-      <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId7"/>
-        <a:stretch>
-          <a:fillRect/>
-        </a:stretch>
-      </xdr:blipFill>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="0" y="24679275"/>
-          <a:ext cx="4048125" cy="3020793"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-      </xdr:spPr>
-    </xdr:pic>
-    <xdr:clientData/>
-  </xdr:oneCellAnchor>
-  <xdr:twoCellAnchor editAs="oneCell">
-    <xdr:from>
-      <xdr:col>0</xdr:col>
-      <xdr:colOff>0</xdr:colOff>
-      <xdr:row>27</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>2</xdr:col>
-      <xdr:colOff>1933142</xdr:colOff>
-      <xdr:row>27</xdr:row>
-      <xdr:rowOff>3009900</xdr:rowOff>
-    </xdr:to>
-    <xdr:pic>
-      <xdr:nvPicPr>
-        <xdr:cNvPr id="13" name="그림 12"/>
         <xdr:cNvPicPr>
           <a:picLocks noChangeAspect="1"/>
         </xdr:cNvPicPr>
@@ -1184,8 +1325,46 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="0" y="31289625"/>
-          <a:ext cx="3961967" cy="3009900"/>
+          <a:off x="1" y="19602450"/>
+          <a:ext cx="4686299" cy="2838039"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>1</xdr:colOff>
+      <xdr:row>23</xdr:row>
+      <xdr:rowOff>1</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>2676525</xdr:colOff>
+      <xdr:row>23</xdr:row>
+      <xdr:rowOff>2847575</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="11" name="그림 10"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId9"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="1" y="22688551"/>
+          <a:ext cx="4705349" cy="2847574"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -1203,9 +1382,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>2</xdr:col>
-      <xdr:colOff>1981200</xdr:colOff>
+      <xdr:colOff>1593146</xdr:colOff>
       <xdr:row>29</xdr:row>
-      <xdr:rowOff>3032392</xdr:rowOff>
+      <xdr:rowOff>2828925</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -1215,15 +1394,15 @@
         </xdr:cNvPicPr>
       </xdr:nvPicPr>
       <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId9"/>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId10"/>
         <a:stretch>
           <a:fillRect/>
         </a:stretch>
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="0" y="34594800"/>
-          <a:ext cx="4010025" cy="3032392"/>
+          <a:off x="0" y="33575625"/>
+          <a:ext cx="3621971" cy="2828925"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -1237,13 +1416,13 @@
       <xdr:col>0</xdr:col>
       <xdr:colOff>0</xdr:colOff>
       <xdr:row>31</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
+      <xdr:rowOff>1</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>2</xdr:col>
-      <xdr:colOff>2019300</xdr:colOff>
+      <xdr:colOff>1323975</xdr:colOff>
       <xdr:row>31</xdr:row>
-      <xdr:rowOff>2975919</xdr:rowOff>
+      <xdr:rowOff>3015689</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -1253,15 +1432,281 @@
         </xdr:cNvPicPr>
       </xdr:nvPicPr>
       <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId10"/>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId11"/>
         <a:stretch>
           <a:fillRect/>
         </a:stretch>
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="0" y="37899975"/>
-          <a:ext cx="4048125" cy="2975919"/>
+          <a:off x="0" y="36699826"/>
+          <a:ext cx="3352800" cy="3015688"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>1</xdr:colOff>
+      <xdr:row>33</xdr:row>
+      <xdr:rowOff>1</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>2404466</xdr:colOff>
+      <xdr:row>33</xdr:row>
+      <xdr:rowOff>3514725</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="16" name="그림 15"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId12"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="1" y="40881301"/>
+          <a:ext cx="4433290" cy="3514724"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>35</xdr:row>
+      <xdr:rowOff>1</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>1695450</xdr:colOff>
+      <xdr:row>35</xdr:row>
+      <xdr:rowOff>3028755</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="17" name="그림 16"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId13"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="0" y="45310426"/>
+          <a:ext cx="3724275" cy="3028754"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>37</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>1819275</xdr:colOff>
+      <xdr:row>37</xdr:row>
+      <xdr:rowOff>3032219</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="18" name="그림 17"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId14"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="0" y="48615600"/>
+          <a:ext cx="3848100" cy="3032219"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>1</xdr:colOff>
+      <xdr:row>39</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>39</xdr:row>
+      <xdr:rowOff>2949946</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="19" name="그림 18"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId15"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="1" y="51920775"/>
+          <a:ext cx="4762499" cy="2949946"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>2</xdr:colOff>
+      <xdr:row>41</xdr:row>
+      <xdr:rowOff>1</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>1852281</xdr:colOff>
+      <xdr:row>41</xdr:row>
+      <xdr:rowOff>3028950</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="20" name="그림 19"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId16"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="2" y="55225951"/>
+          <a:ext cx="3881104" cy="3028949"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>1</xdr:colOff>
+      <xdr:row>43</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>175868</xdr:colOff>
+      <xdr:row>43</xdr:row>
+      <xdr:rowOff>3009900</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="21" name="그림 20"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId17"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="1" y="58531125"/>
+          <a:ext cx="4938367" cy="3009900"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>45</xdr:row>
+      <xdr:rowOff>1</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>2160181</xdr:colOff>
+      <xdr:row>45</xdr:row>
+      <xdr:rowOff>2990851</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="22" name="그림 21"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId18"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="0" y="61864876"/>
+          <a:ext cx="4189006" cy="2990850"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -1536,20 +1981,19 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A2:J33"/>
+  <dimension ref="A2:J41"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C4" sqref="C4"/>
+      <selection activeCell="D8" sqref="D8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="1" width="5.25" customWidth="1"/>
     <col min="2" max="2" width="21.375" customWidth="1"/>
-    <col min="3" max="3" width="35.875" customWidth="1"/>
+    <col min="3" max="3" width="44.125" customWidth="1"/>
     <col min="4" max="4" width="26.75" customWidth="1"/>
-    <col min="5" max="5" width="30.375" customWidth="1"/>
-    <col min="6" max="6" width="23.75" customWidth="1"/>
+    <col min="5" max="6" width="44.375" customWidth="1"/>
     <col min="10" max="10" width="15" customWidth="1"/>
   </cols>
   <sheetData>
@@ -1575,13 +2019,13 @@
       </c>
       <c r="B3" s="16"/>
       <c r="C3" s="11" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="D3" s="12" t="s">
         <v>15</v>
       </c>
       <c r="E3" s="24" t="s">
-        <v>53</v>
+        <v>50</v>
       </c>
       <c r="F3" s="19"/>
       <c r="G3" s="25" t="s">
@@ -1601,13 +2045,13 @@
       </c>
       <c r="B4" s="16"/>
       <c r="C4" s="4" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="D4" s="12" t="s">
         <v>16</v>
       </c>
       <c r="E4" s="24" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="F4" s="19"/>
       <c r="G4" s="26"/>
@@ -1625,13 +2069,13 @@
       </c>
       <c r="B5" s="16"/>
       <c r="C5" s="1" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="D5" s="12" t="s">
         <v>17</v>
       </c>
       <c r="E5" s="24" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="F5" s="19"/>
       <c r="G5" s="27"/>
@@ -1649,7 +2093,7 @@
       </c>
       <c r="B6" s="16"/>
       <c r="C6" s="17" t="s">
-        <v>64</v>
+        <v>131</v>
       </c>
       <c r="D6" s="18"/>
       <c r="E6" s="18"/>
@@ -1665,7 +2109,7 @@
       </c>
       <c r="B7" s="16"/>
       <c r="C7" s="17" t="s">
-        <v>61</v>
+        <v>107</v>
       </c>
       <c r="D7" s="18"/>
       <c r="E7" s="18"/>
@@ -1741,19 +2185,19 @@
         <v>26</v>
       </c>
       <c r="C11" s="6" t="s">
-        <v>55</v>
+        <v>105</v>
       </c>
       <c r="D11" s="6" t="s">
-        <v>47</v>
+        <v>124</v>
       </c>
       <c r="E11" s="6" t="s">
-        <v>56</v>
+        <v>106</v>
       </c>
       <c r="F11" s="6" t="s">
-        <v>58</v>
+        <v>104</v>
       </c>
       <c r="G11" s="4" t="s">
-        <v>27</v>
+        <v>130</v>
       </c>
       <c r="H11" s="4"/>
       <c r="I11" s="4"/>
@@ -1767,23 +2211,25 @@
         <v>26</v>
       </c>
       <c r="C12" s="6" t="s">
-        <v>60</v>
-      </c>
-      <c r="D12" s="6"/>
+        <v>52</v>
+      </c>
+      <c r="D12" s="6" t="s">
+        <v>123</v>
+      </c>
       <c r="E12" s="6" t="s">
-        <v>57</v>
+        <v>79</v>
       </c>
       <c r="F12" s="6" t="s">
-        <v>59</v>
+        <v>80</v>
       </c>
       <c r="G12" s="4" t="s">
-        <v>27</v>
+        <v>130</v>
       </c>
       <c r="H12" s="4"/>
       <c r="I12" s="4"/>
       <c r="J12" s="4"/>
     </row>
-    <row r="13" spans="1:10" ht="52.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:10" ht="76.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A13" s="5">
         <v>3</v>
       </c>
@@ -1791,23 +2237,25 @@
         <v>26</v>
       </c>
       <c r="C13" s="6" t="s">
-        <v>65</v>
-      </c>
-      <c r="D13" s="6"/>
+        <v>70</v>
+      </c>
+      <c r="D13" s="6" t="s">
+        <v>125</v>
+      </c>
       <c r="E13" s="6" t="s">
-        <v>66</v>
+        <v>81</v>
       </c>
       <c r="F13" s="6" t="s">
-        <v>67</v>
+        <v>60</v>
       </c>
       <c r="G13" s="4" t="s">
-        <v>27</v>
+        <v>130</v>
       </c>
       <c r="H13" s="4"/>
       <c r="I13" s="4"/>
       <c r="J13" s="4"/>
     </row>
-    <row r="14" spans="1:10" ht="52.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:10" ht="76.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A14" s="5">
         <v>4</v>
       </c>
@@ -1815,23 +2263,25 @@
         <v>26</v>
       </c>
       <c r="C14" s="6" t="s">
-        <v>78</v>
-      </c>
-      <c r="D14" s="6"/>
+        <v>69</v>
+      </c>
+      <c r="D14" s="6" t="s">
+        <v>124</v>
+      </c>
       <c r="E14" s="6" t="s">
-        <v>79</v>
+        <v>82</v>
       </c>
       <c r="F14" s="6" t="s">
-        <v>80</v>
+        <v>61</v>
       </c>
       <c r="G14" s="4" t="s">
-        <v>27</v>
-      </c>
-      <c r="H14" s="13"/>
-      <c r="I14" s="13"/>
-      <c r="J14" s="13"/>
-    </row>
-    <row r="15" spans="1:10" ht="69" customHeight="1" x14ac:dyDescent="0.3">
+        <v>130</v>
+      </c>
+      <c r="H14" s="4"/>
+      <c r="I14" s="4"/>
+      <c r="J14" s="4"/>
+    </row>
+    <row r="15" spans="1:10" ht="76.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A15" s="5">
         <v>5</v>
       </c>
@@ -1839,23 +2289,25 @@
         <v>26</v>
       </c>
       <c r="C15" s="6" t="s">
-        <v>68</v>
-      </c>
-      <c r="D15" s="6"/>
+        <v>71</v>
+      </c>
+      <c r="D15" s="6" t="s">
+        <v>124</v>
+      </c>
       <c r="E15" s="6" t="s">
-        <v>69</v>
+        <v>83</v>
       </c>
       <c r="F15" s="6" t="s">
-        <v>70</v>
+        <v>62</v>
       </c>
       <c r="G15" s="4" t="s">
-        <v>27</v>
-      </c>
-      <c r="H15" s="13"/>
-      <c r="I15" s="13"/>
-      <c r="J15" s="13"/>
-    </row>
-    <row r="16" spans="1:10" ht="69" customHeight="1" x14ac:dyDescent="0.3">
+        <v>130</v>
+      </c>
+      <c r="H15" s="4"/>
+      <c r="I15" s="4"/>
+      <c r="J15" s="4"/>
+    </row>
+    <row r="16" spans="1:10" ht="76.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A16" s="5">
         <v>6</v>
       </c>
@@ -1863,23 +2315,25 @@
         <v>26</v>
       </c>
       <c r="C16" s="6" t="s">
-        <v>71</v>
-      </c>
-      <c r="D16" s="6"/>
+        <v>72</v>
+      </c>
+      <c r="D16" s="6" t="s">
+        <v>124</v>
+      </c>
       <c r="E16" s="6" t="s">
-        <v>72</v>
+        <v>84</v>
       </c>
       <c r="F16" s="6" t="s">
-        <v>73</v>
+        <v>63</v>
       </c>
       <c r="G16" s="4" t="s">
-        <v>27</v>
+        <v>130</v>
       </c>
       <c r="H16" s="4"/>
       <c r="I16" s="4"/>
       <c r="J16" s="4"/>
     </row>
-    <row r="17" spans="1:10" ht="69" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:10" ht="76.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A17" s="5">
         <v>7</v>
       </c>
@@ -1887,23 +2341,25 @@
         <v>26</v>
       </c>
       <c r="C17" s="6" t="s">
-        <v>74</v>
-      </c>
-      <c r="D17" s="6"/>
+        <v>68</v>
+      </c>
+      <c r="D17" s="6" t="s">
+        <v>124</v>
+      </c>
       <c r="E17" s="6" t="s">
         <v>85</v>
       </c>
       <c r="F17" s="6" t="s">
-        <v>86</v>
+        <v>65</v>
       </c>
       <c r="G17" s="4" t="s">
-        <v>27</v>
+        <v>130</v>
       </c>
       <c r="H17" s="4"/>
       <c r="I17" s="4"/>
       <c r="J17" s="4"/>
     </row>
-    <row r="18" spans="1:10" ht="66" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:10" ht="52.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A18" s="5">
         <v>8</v>
       </c>
@@ -1911,23 +2367,25 @@
         <v>26</v>
       </c>
       <c r="C18" s="6" t="s">
+        <v>56</v>
+      </c>
+      <c r="D18" s="6" t="s">
+        <v>124</v>
+      </c>
+      <c r="E18" s="6" t="s">
+        <v>86</v>
+      </c>
+      <c r="F18" s="6" t="s">
         <v>87</v>
       </c>
-      <c r="D18" s="4"/>
-      <c r="E18" s="6" t="s">
-        <v>75</v>
-      </c>
-      <c r="F18" s="6" t="s">
-        <v>76</v>
-      </c>
       <c r="G18" s="4" t="s">
-        <v>27</v>
+        <v>130</v>
       </c>
       <c r="H18" s="4"/>
       <c r="I18" s="4"/>
       <c r="J18" s="4"/>
     </row>
-    <row r="19" spans="1:10" ht="66" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:10" ht="52.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A19" s="5">
         <v>9</v>
       </c>
@@ -1935,23 +2393,25 @@
         <v>26</v>
       </c>
       <c r="C19" s="6" t="s">
+        <v>57</v>
+      </c>
+      <c r="D19" s="6" t="s">
+        <v>124</v>
+      </c>
+      <c r="E19" s="6" t="s">
         <v>88</v>
       </c>
-      <c r="D19" s="4"/>
-      <c r="E19" s="6" t="s">
+      <c r="F19" s="6" t="s">
         <v>89</v>
       </c>
-      <c r="F19" s="6" t="s">
-        <v>91</v>
-      </c>
       <c r="G19" s="4" t="s">
-        <v>27</v>
-      </c>
-      <c r="H19" s="4"/>
-      <c r="I19" s="4"/>
-      <c r="J19" s="4"/>
-    </row>
-    <row r="20" spans="1:10" ht="66" customHeight="1" x14ac:dyDescent="0.3">
+        <v>130</v>
+      </c>
+      <c r="H19" s="13"/>
+      <c r="I19" s="13"/>
+      <c r="J19" s="13"/>
+    </row>
+    <row r="20" spans="1:10" ht="52.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A20" s="5">
         <v>10</v>
       </c>
@@ -1959,146 +2419,260 @@
         <v>26</v>
       </c>
       <c r="C20" s="6" t="s">
+        <v>66</v>
+      </c>
+      <c r="D20" s="6" t="s">
+        <v>124</v>
+      </c>
+      <c r="E20" s="6" t="s">
+        <v>90</v>
+      </c>
+      <c r="F20" s="6" t="s">
+        <v>91</v>
+      </c>
+      <c r="G20" s="4" t="s">
+        <v>130</v>
+      </c>
+      <c r="H20" s="13"/>
+      <c r="I20" s="13"/>
+      <c r="J20" s="13"/>
+    </row>
+    <row r="21" spans="1:10" ht="69" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A21" s="5">
+        <v>11</v>
+      </c>
+      <c r="B21" s="4" t="s">
+        <v>26</v>
+      </c>
+      <c r="C21" s="6" t="s">
+        <v>67</v>
+      </c>
+      <c r="D21" s="6" t="s">
+        <v>124</v>
+      </c>
+      <c r="E21" s="6" t="s">
+        <v>92</v>
+      </c>
+      <c r="F21" s="6" t="s">
+        <v>93</v>
+      </c>
+      <c r="G21" s="4" t="s">
+        <v>130</v>
+      </c>
+      <c r="H21" s="13"/>
+      <c r="I21" s="13"/>
+      <c r="J21" s="13"/>
+    </row>
+    <row r="22" spans="1:10" ht="110.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A22" s="5">
+        <v>12</v>
+      </c>
+      <c r="B22" s="4" t="s">
+        <v>26</v>
+      </c>
+      <c r="C22" s="6" t="s">
+        <v>59</v>
+      </c>
+      <c r="D22" s="6" t="s">
+        <v>124</v>
+      </c>
+      <c r="E22" s="6" t="s">
         <v>94</v>
       </c>
-      <c r="D20" s="4"/>
-      <c r="E20" s="4" t="s">
-        <v>92</v>
-      </c>
-      <c r="F20" s="6" t="s">
-        <v>93</v>
-      </c>
-      <c r="G20" s="4" t="s">
-        <v>27</v>
-      </c>
-      <c r="H20" s="4"/>
-      <c r="I20" s="4"/>
-      <c r="J20" s="4"/>
-    </row>
-    <row r="21" spans="1:10" ht="66" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A21" s="5"/>
-      <c r="B21" s="4"/>
-      <c r="C21" s="6"/>
-      <c r="D21" s="6"/>
-      <c r="E21" s="6"/>
-      <c r="F21" s="6"/>
-      <c r="G21" s="4"/>
-      <c r="H21" s="4"/>
-      <c r="I21" s="4"/>
-      <c r="J21" s="4"/>
-    </row>
-    <row r="22" spans="1:10" ht="66" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A22" s="5"/>
-      <c r="B22" s="4"/>
-      <c r="C22" s="6"/>
-      <c r="D22" s="4"/>
-      <c r="E22" s="6"/>
-      <c r="F22" s="6"/>
-      <c r="G22" s="4"/>
+      <c r="F22" s="6" t="s">
+        <v>95</v>
+      </c>
+      <c r="G22" s="4" t="s">
+        <v>130</v>
+      </c>
       <c r="H22" s="4"/>
       <c r="I22" s="4"/>
       <c r="J22" s="4"/>
     </row>
-    <row r="23" spans="1:10" ht="66" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A23" s="5"/>
-      <c r="B23" s="4"/>
-      <c r="C23" s="6"/>
-      <c r="D23" s="4"/>
-      <c r="E23" s="4"/>
-      <c r="F23" s="4"/>
-      <c r="G23" s="4"/>
+    <row r="23" spans="1:10" ht="103.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A23" s="5">
+        <v>13</v>
+      </c>
+      <c r="B23" s="4" t="s">
+        <v>26</v>
+      </c>
+      <c r="C23" s="6" t="s">
+        <v>127</v>
+      </c>
+      <c r="D23" s="6" t="s">
+        <v>124</v>
+      </c>
+      <c r="E23" s="6" t="s">
+        <v>128</v>
+      </c>
+      <c r="F23" s="6" t="s">
+        <v>129</v>
+      </c>
+      <c r="G23" s="4" t="s">
+        <v>130</v>
+      </c>
       <c r="H23" s="4"/>
       <c r="I23" s="4"/>
       <c r="J23" s="4"/>
     </row>
-    <row r="24" spans="1:10" ht="66" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A24" s="5"/>
-      <c r="B24" s="4"/>
-      <c r="C24" s="4"/>
-      <c r="D24" s="4"/>
-      <c r="E24" s="4"/>
-      <c r="F24" s="4"/>
-      <c r="G24" s="4"/>
+    <row r="24" spans="1:10" ht="69" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A24" s="5">
+        <v>14</v>
+      </c>
+      <c r="B24" s="4" t="s">
+        <v>26</v>
+      </c>
+      <c r="C24" s="6" t="s">
+        <v>73</v>
+      </c>
+      <c r="D24" s="6" t="s">
+        <v>124</v>
+      </c>
+      <c r="E24" s="6" t="s">
+        <v>96</v>
+      </c>
+      <c r="F24" s="6" t="s">
+        <v>97</v>
+      </c>
+      <c r="G24" s="4" t="s">
+        <v>130</v>
+      </c>
       <c r="H24" s="4"/>
       <c r="I24" s="4"/>
       <c r="J24" s="4"/>
     </row>
-    <row r="25" spans="1:10" ht="66" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A25" s="5"/>
-      <c r="B25" s="4"/>
-      <c r="C25" s="4"/>
-      <c r="D25" s="4"/>
-      <c r="E25" s="4"/>
-      <c r="F25" s="4"/>
-      <c r="G25" s="4"/>
+    <row r="25" spans="1:10" ht="69" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A25" s="5">
+        <v>15</v>
+      </c>
+      <c r="B25" s="4" t="s">
+        <v>26</v>
+      </c>
+      <c r="C25" s="6" t="s">
+        <v>58</v>
+      </c>
+      <c r="D25" s="6" t="s">
+        <v>124</v>
+      </c>
+      <c r="E25" s="6" t="s">
+        <v>98</v>
+      </c>
+      <c r="F25" s="6" t="s">
+        <v>99</v>
+      </c>
+      <c r="G25" s="4" t="s">
+        <v>130</v>
+      </c>
       <c r="H25" s="4"/>
       <c r="I25" s="4"/>
       <c r="J25" s="4"/>
     </row>
     <row r="26" spans="1:10" ht="66" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A26" s="5"/>
-      <c r="B26" s="4"/>
-      <c r="C26" s="4"/>
-      <c r="D26" s="4"/>
-      <c r="E26" s="4"/>
-      <c r="F26" s="4"/>
-      <c r="G26" s="4"/>
+      <c r="A26" s="5">
+        <v>16</v>
+      </c>
+      <c r="B26" s="4" t="s">
+        <v>26</v>
+      </c>
+      <c r="C26" s="6" t="s">
+        <v>74</v>
+      </c>
+      <c r="D26" s="6" t="s">
+        <v>124</v>
+      </c>
+      <c r="E26" s="6" t="s">
+        <v>100</v>
+      </c>
+      <c r="F26" s="6" t="s">
+        <v>101</v>
+      </c>
+      <c r="G26" s="4" t="s">
+        <v>130</v>
+      </c>
       <c r="H26" s="4"/>
       <c r="I26" s="4"/>
       <c r="J26" s="4"/>
     </row>
-    <row r="27" spans="1:10" ht="66" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A27" s="5"/>
-      <c r="B27" s="4"/>
-      <c r="C27" s="4"/>
-      <c r="D27" s="4"/>
-      <c r="E27" s="4"/>
-      <c r="F27" s="4"/>
-      <c r="G27" s="4"/>
+    <row r="27" spans="1:10" ht="69" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A27" s="5">
+        <v>17</v>
+      </c>
+      <c r="B27" s="4" t="s">
+        <v>26</v>
+      </c>
+      <c r="C27" s="6" t="s">
+        <v>75</v>
+      </c>
+      <c r="D27" s="6" t="s">
+        <v>64</v>
+      </c>
+      <c r="E27" s="6" t="s">
+        <v>102</v>
+      </c>
+      <c r="F27" s="6" t="s">
+        <v>77</v>
+      </c>
+      <c r="G27" s="4" t="s">
+        <v>130</v>
+      </c>
       <c r="H27" s="4"/>
       <c r="I27" s="4"/>
       <c r="J27" s="4"/>
     </row>
-    <row r="28" spans="1:10" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A28" s="5"/>
-      <c r="B28" s="4"/>
-      <c r="C28" s="4"/>
-      <c r="D28" s="4"/>
-      <c r="E28" s="4"/>
-      <c r="F28" s="4"/>
-      <c r="G28" s="4"/>
+    <row r="28" spans="1:10" ht="66" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A28" s="5">
+        <v>18</v>
+      </c>
+      <c r="B28" s="4" t="s">
+        <v>26</v>
+      </c>
+      <c r="C28" s="6" t="s">
+        <v>76</v>
+      </c>
+      <c r="D28" s="6" t="s">
+        <v>124</v>
+      </c>
+      <c r="E28" s="6" t="s">
+        <v>78</v>
+      </c>
+      <c r="F28" s="6" t="s">
+        <v>103</v>
+      </c>
+      <c r="G28" s="4" t="s">
+        <v>130</v>
+      </c>
       <c r="H28" s="4"/>
       <c r="I28" s="4"/>
       <c r="J28" s="4"/>
     </row>
-    <row r="29" spans="1:10" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:10" ht="66" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A29" s="5"/>
       <c r="B29" s="4"/>
-      <c r="C29" s="4"/>
-      <c r="D29" s="4"/>
-      <c r="E29" s="4"/>
-      <c r="F29" s="4"/>
+      <c r="C29" s="6"/>
+      <c r="D29" s="6"/>
+      <c r="E29" s="6"/>
+      <c r="F29" s="6"/>
       <c r="G29" s="4"/>
       <c r="H29" s="4"/>
       <c r="I29" s="4"/>
       <c r="J29" s="4"/>
     </row>
-    <row r="30" spans="1:10" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:10" ht="66" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A30" s="5"/>
       <c r="B30" s="4"/>
-      <c r="C30" s="4"/>
+      <c r="C30" s="6"/>
       <c r="D30" s="4"/>
-      <c r="E30" s="4"/>
-      <c r="F30" s="4"/>
+      <c r="E30" s="6"/>
+      <c r="F30" s="6"/>
       <c r="G30" s="4"/>
       <c r="H30" s="4"/>
       <c r="I30" s="4"/>
       <c r="J30" s="4"/>
     </row>
-    <row r="31" spans="1:10" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:10" ht="66" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A31" s="5"/>
       <c r="B31" s="4"/>
-      <c r="C31" s="4"/>
+      <c r="C31" s="6"/>
       <c r="D31" s="4"/>
       <c r="E31" s="4"/>
       <c r="F31" s="4"/>
@@ -2107,7 +2681,7 @@
       <c r="I31" s="4"/>
       <c r="J31" s="4"/>
     </row>
-    <row r="32" spans="1:10" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="32" spans="1:10" ht="66" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A32" s="5"/>
       <c r="B32" s="4"/>
       <c r="C32" s="4"/>
@@ -2119,7 +2693,7 @@
       <c r="I32" s="4"/>
       <c r="J32" s="4"/>
     </row>
-    <row r="33" spans="1:10" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="33" spans="1:10" ht="66" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A33" s="5"/>
       <c r="B33" s="4"/>
       <c r="C33" s="4"/>
@@ -2130,6 +2704,102 @@
       <c r="H33" s="4"/>
       <c r="I33" s="4"/>
       <c r="J33" s="4"/>
+    </row>
+    <row r="34" spans="1:10" ht="66" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A34" s="5"/>
+      <c r="B34" s="4"/>
+      <c r="C34" s="4"/>
+      <c r="D34" s="4"/>
+      <c r="E34" s="4"/>
+      <c r="F34" s="4"/>
+      <c r="G34" s="4"/>
+      <c r="H34" s="4"/>
+      <c r="I34" s="4"/>
+      <c r="J34" s="4"/>
+    </row>
+    <row r="35" spans="1:10" ht="66" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A35" s="5"/>
+      <c r="B35" s="4"/>
+      <c r="C35" s="4"/>
+      <c r="D35" s="4"/>
+      <c r="E35" s="4"/>
+      <c r="F35" s="4"/>
+      <c r="G35" s="4"/>
+      <c r="H35" s="4"/>
+      <c r="I35" s="4"/>
+      <c r="J35" s="4"/>
+    </row>
+    <row r="36" spans="1:10" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A36" s="5"/>
+      <c r="B36" s="4"/>
+      <c r="C36" s="4"/>
+      <c r="D36" s="4"/>
+      <c r="E36" s="4"/>
+      <c r="F36" s="4"/>
+      <c r="G36" s="4"/>
+      <c r="H36" s="4"/>
+      <c r="I36" s="4"/>
+      <c r="J36" s="4"/>
+    </row>
+    <row r="37" spans="1:10" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A37" s="5"/>
+      <c r="B37" s="4"/>
+      <c r="C37" s="4"/>
+      <c r="D37" s="4"/>
+      <c r="E37" s="4"/>
+      <c r="F37" s="4"/>
+      <c r="G37" s="4"/>
+      <c r="H37" s="4"/>
+      <c r="I37" s="4"/>
+      <c r="J37" s="4"/>
+    </row>
+    <row r="38" spans="1:10" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A38" s="5"/>
+      <c r="B38" s="4"/>
+      <c r="C38" s="4"/>
+      <c r="D38" s="4"/>
+      <c r="E38" s="4"/>
+      <c r="F38" s="4"/>
+      <c r="G38" s="4"/>
+      <c r="H38" s="4"/>
+      <c r="I38" s="4"/>
+      <c r="J38" s="4"/>
+    </row>
+    <row r="39" spans="1:10" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A39" s="5"/>
+      <c r="B39" s="4"/>
+      <c r="C39" s="4"/>
+      <c r="D39" s="4"/>
+      <c r="E39" s="4"/>
+      <c r="F39" s="4"/>
+      <c r="G39" s="4"/>
+      <c r="H39" s="4"/>
+      <c r="I39" s="4"/>
+      <c r="J39" s="4"/>
+    </row>
+    <row r="40" spans="1:10" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A40" s="5"/>
+      <c r="B40" s="4"/>
+      <c r="C40" s="4"/>
+      <c r="D40" s="4"/>
+      <c r="E40" s="4"/>
+      <c r="F40" s="4"/>
+      <c r="G40" s="4"/>
+      <c r="H40" s="4"/>
+      <c r="I40" s="4"/>
+      <c r="J40" s="4"/>
+    </row>
+    <row r="41" spans="1:10" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A41" s="5"/>
+      <c r="B41" s="4"/>
+      <c r="C41" s="4"/>
+      <c r="D41" s="4"/>
+      <c r="E41" s="4"/>
+      <c r="F41" s="4"/>
+      <c r="G41" s="4"/>
+      <c r="H41" s="4"/>
+      <c r="I41" s="4"/>
+      <c r="J41" s="4"/>
     </row>
   </sheetData>
   <mergeCells count="23">
@@ -2168,7 +2838,7 @@
   <dimension ref="A2:J20"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B25" sqref="B25"/>
+      <selection activeCell="C6" sqref="C6:J6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -2204,13 +2874,13 @@
       </c>
       <c r="B3" s="16"/>
       <c r="C3" s="11" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="D3" s="14" t="s">
         <v>15</v>
       </c>
       <c r="E3" s="24" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="F3" s="19"/>
       <c r="G3" s="25" t="s">
@@ -2230,13 +2900,13 @@
       </c>
       <c r="B4" s="16"/>
       <c r="C4" s="4" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="D4" s="14" t="s">
         <v>16</v>
       </c>
       <c r="E4" s="24" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="F4" s="19"/>
       <c r="G4" s="26"/>
@@ -2254,13 +2924,13 @@
       </c>
       <c r="B5" s="16"/>
       <c r="C5" s="1" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="D5" s="14" t="s">
         <v>17</v>
       </c>
       <c r="E5" s="24" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="F5" s="19"/>
       <c r="G5" s="27"/>
@@ -2278,7 +2948,7 @@
       </c>
       <c r="B6" s="16"/>
       <c r="C6" s="17" t="s">
-        <v>52</v>
+        <v>55</v>
       </c>
       <c r="D6" s="18"/>
       <c r="E6" s="18"/>
@@ -2294,7 +2964,7 @@
       </c>
       <c r="B7" s="16"/>
       <c r="C7" s="17" t="s">
-        <v>61</v>
+        <v>53</v>
       </c>
       <c r="D7" s="18"/>
       <c r="E7" s="18"/>
@@ -2307,11 +2977,11 @@
     <row r="8" spans="1:10" ht="24.75" customHeight="1" x14ac:dyDescent="0.3"/>
     <row r="9" spans="1:10" ht="24.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A9" s="34" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="B9" s="34"/>
       <c r="C9" s="34" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="D9" s="34"/>
       <c r="E9" s="34"/>
@@ -2319,19 +2989,19 @@
       <c r="G9" s="34"/>
       <c r="H9" s="34"/>
       <c r="I9" s="7" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="J9" s="7" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
     </row>
     <row r="10" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A10" s="28" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="B10" s="29"/>
       <c r="C10" s="24" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="D10" s="18"/>
       <c r="E10" s="18"/>
@@ -2345,7 +3015,7 @@
       <c r="A11" s="30"/>
       <c r="B11" s="31"/>
       <c r="C11" s="24" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="D11" s="18"/>
       <c r="E11" s="18"/>
@@ -2359,7 +3029,7 @@
       <c r="A12" s="30"/>
       <c r="B12" s="31"/>
       <c r="C12" s="24" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="D12" s="18"/>
       <c r="E12" s="18"/>
@@ -2373,7 +3043,7 @@
       <c r="A13" s="30"/>
       <c r="B13" s="31"/>
       <c r="C13" s="24" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="D13" s="18"/>
       <c r="E13" s="18"/>
@@ -2387,7 +3057,7 @@
       <c r="A14" s="30"/>
       <c r="B14" s="31"/>
       <c r="C14" s="24" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="D14" s="18"/>
       <c r="E14" s="18"/>
@@ -2401,7 +3071,7 @@
       <c r="A15" s="30"/>
       <c r="B15" s="31"/>
       <c r="C15" s="24" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="D15" s="18"/>
       <c r="E15" s="18"/>
@@ -2415,7 +3085,7 @@
       <c r="A16" s="30"/>
       <c r="B16" s="31"/>
       <c r="C16" s="24" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="D16" s="18"/>
       <c r="E16" s="18"/>
@@ -2429,7 +3099,7 @@
       <c r="A17" s="30"/>
       <c r="B17" s="31"/>
       <c r="C17" s="24" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="D17" s="18"/>
       <c r="E17" s="18"/>
@@ -2443,7 +3113,7 @@
       <c r="A18" s="30"/>
       <c r="B18" s="31"/>
       <c r="C18" s="24" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="D18" s="18"/>
       <c r="E18" s="18"/>
@@ -2457,7 +3127,7 @@
       <c r="A19" s="30"/>
       <c r="B19" s="31"/>
       <c r="C19" s="24" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="D19" s="18"/>
       <c r="E19" s="18"/>
@@ -2471,7 +3141,7 @@
       <c r="A20" s="32"/>
       <c r="B20" s="33"/>
       <c r="C20" s="24" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="D20" s="18"/>
       <c r="E20" s="18"/>
@@ -2521,10 +3191,10 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:J39"/>
+  <dimension ref="A1:J68"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C3" sqref="C3"/>
+      <selection activeCell="A46" sqref="A46:J46"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -2540,14 +3210,14 @@
   <sheetData>
     <row r="1" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A1" s="10" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
     </row>
     <row r="2" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A2" s="44" t="s">
+      <c r="A2" s="41" t="s">
         <v>22</v>
       </c>
-      <c r="B2" s="44"/>
+      <c r="B2" s="41"/>
       <c r="C2" s="2"/>
       <c r="D2" s="2"/>
       <c r="E2" s="2"/>
@@ -2565,13 +3235,13 @@
       </c>
       <c r="B3" s="16"/>
       <c r="C3" s="11" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="D3" s="7" t="s">
         <v>15</v>
       </c>
       <c r="E3" s="24" t="s">
-        <v>54</v>
+        <v>51</v>
       </c>
       <c r="F3" s="18"/>
       <c r="G3" s="18"/>
@@ -2585,13 +3255,13 @@
       </c>
       <c r="B4" s="16"/>
       <c r="C4" s="4" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="D4" s="7" t="s">
         <v>16</v>
       </c>
       <c r="E4" s="24" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="F4" s="18"/>
       <c r="G4" s="18"/>
@@ -2600,68 +3270,68 @@
       <c r="J4" s="19"/>
     </row>
     <row r="6" spans="1:10" hidden="1" x14ac:dyDescent="0.3">
-      <c r="A6" s="45"/>
-      <c r="B6" s="45"/>
-      <c r="C6" s="45"/>
-      <c r="D6" s="45"/>
-      <c r="E6" s="45"/>
-      <c r="F6" s="45"/>
-      <c r="G6" s="45"/>
-      <c r="H6" s="45"/>
-      <c r="I6" s="45"/>
-      <c r="J6" s="46"/>
+      <c r="A6" s="42"/>
+      <c r="B6" s="42"/>
+      <c r="C6" s="42"/>
+      <c r="D6" s="42"/>
+      <c r="E6" s="42"/>
+      <c r="F6" s="42"/>
+      <c r="G6" s="42"/>
+      <c r="H6" s="42"/>
+      <c r="I6" s="42"/>
+      <c r="J6" s="43"/>
     </row>
     <row r="7" spans="1:10" hidden="1" x14ac:dyDescent="0.3">
-      <c r="A7" s="45"/>
-      <c r="B7" s="45"/>
-      <c r="C7" s="45"/>
-      <c r="D7" s="45"/>
-      <c r="E7" s="45"/>
-      <c r="F7" s="45"/>
-      <c r="G7" s="45"/>
-      <c r="H7" s="45"/>
-      <c r="I7" s="45"/>
-      <c r="J7" s="46"/>
+      <c r="A7" s="42"/>
+      <c r="B7" s="42"/>
+      <c r="C7" s="42"/>
+      <c r="D7" s="42"/>
+      <c r="E7" s="42"/>
+      <c r="F7" s="42"/>
+      <c r="G7" s="42"/>
+      <c r="H7" s="42"/>
+      <c r="I7" s="42"/>
+      <c r="J7" s="43"/>
     </row>
     <row r="8" spans="1:10" hidden="1" x14ac:dyDescent="0.3">
-      <c r="A8" s="45"/>
-      <c r="B8" s="45"/>
-      <c r="C8" s="45"/>
-      <c r="D8" s="45"/>
-      <c r="E8" s="45"/>
-      <c r="F8" s="45"/>
-      <c r="G8" s="45"/>
-      <c r="H8" s="45"/>
-      <c r="I8" s="45"/>
-      <c r="J8" s="46"/>
+      <c r="A8" s="42"/>
+      <c r="B8" s="42"/>
+      <c r="C8" s="42"/>
+      <c r="D8" s="42"/>
+      <c r="E8" s="42"/>
+      <c r="F8" s="42"/>
+      <c r="G8" s="42"/>
+      <c r="H8" s="42"/>
+      <c r="I8" s="42"/>
+      <c r="J8" s="43"/>
     </row>
     <row r="9" spans="1:10" hidden="1" x14ac:dyDescent="0.3">
-      <c r="A9" s="45"/>
-      <c r="B9" s="45"/>
-      <c r="C9" s="45"/>
-      <c r="D9" s="45"/>
-      <c r="E9" s="45"/>
-      <c r="F9" s="45"/>
-      <c r="G9" s="45"/>
-      <c r="H9" s="45"/>
-      <c r="I9" s="45"/>
-      <c r="J9" s="46"/>
+      <c r="A9" s="42"/>
+      <c r="B9" s="42"/>
+      <c r="C9" s="42"/>
+      <c r="D9" s="42"/>
+      <c r="E9" s="42"/>
+      <c r="F9" s="42"/>
+      <c r="G9" s="42"/>
+      <c r="H9" s="42"/>
+      <c r="I9" s="42"/>
+      <c r="J9" s="43"/>
     </row>
     <row r="10" spans="1:10" hidden="1" x14ac:dyDescent="0.3">
-      <c r="A10" s="45"/>
-      <c r="B10" s="45"/>
-      <c r="C10" s="45"/>
-      <c r="D10" s="45"/>
-      <c r="E10" s="45"/>
-      <c r="F10" s="45"/>
-      <c r="G10" s="45"/>
-      <c r="H10" s="45"/>
-      <c r="I10" s="45"/>
-      <c r="J10" s="46"/>
+      <c r="A10" s="42"/>
+      <c r="B10" s="42"/>
+      <c r="C10" s="42"/>
+      <c r="D10" s="42"/>
+      <c r="E10" s="42"/>
+      <c r="F10" s="42"/>
+      <c r="G10" s="42"/>
+      <c r="H10" s="42"/>
+      <c r="I10" s="42"/>
+      <c r="J10" s="43"/>
     </row>
     <row r="11" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A11" s="24" t="s">
-        <v>62</v>
+        <v>105</v>
       </c>
       <c r="B11" s="18"/>
       <c r="C11" s="18"/>
@@ -2687,7 +3357,7 @@
     </row>
     <row r="13" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A13" s="24" t="s">
-        <v>63</v>
+        <v>54</v>
       </c>
       <c r="B13" s="18"/>
       <c r="C13" s="18"/>
@@ -2713,7 +3383,7 @@
     </row>
     <row r="15" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A15" s="24" t="s">
-        <v>77</v>
+        <v>108</v>
       </c>
       <c r="B15" s="18"/>
       <c r="C15" s="18"/>
@@ -2725,7 +3395,7 @@
       <c r="I15" s="18"/>
       <c r="J15" s="19"/>
     </row>
-    <row r="16" spans="1:10" ht="291" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:10" ht="241.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A16" s="35"/>
       <c r="B16" s="36"/>
       <c r="C16" s="36"/>
@@ -2739,7 +3409,7 @@
     </row>
     <row r="17" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A17" s="24" t="s">
-        <v>81</v>
+        <v>109</v>
       </c>
       <c r="B17" s="18"/>
       <c r="C17" s="18"/>
@@ -2751,7 +3421,7 @@
       <c r="I17" s="18"/>
       <c r="J17" s="19"/>
     </row>
-    <row r="18" spans="1:10" ht="282.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:10" ht="229.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A18" s="35"/>
       <c r="B18" s="36"/>
       <c r="C18" s="36"/>
@@ -2765,7 +3435,7 @@
     </row>
     <row r="19" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A19" s="24" t="s">
-        <v>82</v>
+        <v>110</v>
       </c>
       <c r="B19" s="18"/>
       <c r="C19" s="18"/>
@@ -2777,21 +3447,21 @@
       <c r="I19" s="18"/>
       <c r="J19" s="19"/>
     </row>
-    <row r="20" spans="1:10" ht="243.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A20" s="35"/>
-      <c r="B20" s="36"/>
-      <c r="C20" s="36"/>
-      <c r="D20" s="36"/>
-      <c r="E20" s="36"/>
-      <c r="F20" s="36"/>
-      <c r="G20" s="36"/>
-      <c r="H20" s="36"/>
-      <c r="I20" s="36"/>
-      <c r="J20" s="37"/>
+    <row r="20" spans="1:10" ht="246" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A20" s="38"/>
+      <c r="B20" s="39"/>
+      <c r="C20" s="39"/>
+      <c r="D20" s="39"/>
+      <c r="E20" s="39"/>
+      <c r="F20" s="39"/>
+      <c r="G20" s="39"/>
+      <c r="H20" s="39"/>
+      <c r="I20" s="39"/>
+      <c r="J20" s="40"/>
     </row>
     <row r="21" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A21" s="24" t="s">
-        <v>83</v>
+        <v>111</v>
       </c>
       <c r="B21" s="18"/>
       <c r="C21" s="18"/>
@@ -2803,7 +3473,7 @@
       <c r="I21" s="18"/>
       <c r="J21" s="19"/>
     </row>
-    <row r="22" spans="1:10" ht="282.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:10" ht="226.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A22" s="35"/>
       <c r="B22" s="36"/>
       <c r="C22" s="36"/>
@@ -2817,7 +3487,7 @@
     </row>
     <row r="23" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A23" s="24" t="s">
-        <v>84</v>
+        <v>112</v>
       </c>
       <c r="B23" s="18"/>
       <c r="C23" s="18"/>
@@ -2829,7 +3499,7 @@
       <c r="I23" s="18"/>
       <c r="J23" s="19"/>
     </row>
-    <row r="24" spans="1:10" ht="243.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:10" ht="234" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A24" s="35"/>
       <c r="B24" s="36"/>
       <c r="C24" s="36"/>
@@ -2843,7 +3513,7 @@
     </row>
     <row r="25" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A25" s="24" t="s">
-        <v>84</v>
+        <v>113</v>
       </c>
       <c r="B25" s="18"/>
       <c r="C25" s="18"/>
@@ -2855,7 +3525,7 @@
       <c r="I25" s="18"/>
       <c r="J25" s="19"/>
     </row>
-    <row r="26" spans="1:10" ht="243.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:10" ht="291" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A26" s="35"/>
       <c r="B26" s="36"/>
       <c r="C26" s="36"/>
@@ -2869,7 +3539,7 @@
     </row>
     <row r="27" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A27" s="24" t="s">
-        <v>90</v>
+        <v>114</v>
       </c>
       <c r="B27" s="18"/>
       <c r="C27" s="18"/>
@@ -2881,7 +3551,7 @@
       <c r="I27" s="18"/>
       <c r="J27" s="19"/>
     </row>
-    <row r="28" spans="1:10" ht="243.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:10" ht="282.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A28" s="35"/>
       <c r="B28" s="36"/>
       <c r="C28" s="36"/>
@@ -2895,7 +3565,7 @@
     </row>
     <row r="29" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A29" s="24" t="s">
-        <v>96</v>
+        <v>115</v>
       </c>
       <c r="B29" s="18"/>
       <c r="C29" s="18"/>
@@ -2907,7 +3577,7 @@
       <c r="I29" s="18"/>
       <c r="J29" s="19"/>
     </row>
-    <row r="30" spans="1:10" ht="243.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:10" ht="229.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A30" s="35"/>
       <c r="B30" s="36"/>
       <c r="C30" s="36"/>
@@ -2921,7 +3591,7 @@
     </row>
     <row r="31" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A31" s="24" t="s">
-        <v>95</v>
+        <v>116</v>
       </c>
       <c r="B31" s="18"/>
       <c r="C31" s="18"/>
@@ -2933,107 +3603,468 @@
       <c r="I31" s="18"/>
       <c r="J31" s="19"/>
     </row>
-    <row r="32" spans="1:10" ht="246" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A32" s="38"/>
-      <c r="B32" s="39"/>
-      <c r="C32" s="39"/>
-      <c r="D32" s="39"/>
-      <c r="E32" s="39"/>
-      <c r="F32" s="39"/>
-      <c r="G32" s="39"/>
-      <c r="H32" s="39"/>
-      <c r="I32" s="39"/>
-      <c r="J32" s="40"/>
-    </row>
-    <row r="33" spans="1:10" ht="246.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A33" s="41"/>
-      <c r="B33" s="42"/>
-      <c r="C33" s="42"/>
-      <c r="D33" s="42"/>
-      <c r="E33" s="42"/>
-      <c r="F33" s="42"/>
-      <c r="G33" s="42"/>
-      <c r="H33" s="42"/>
-      <c r="I33" s="42"/>
-      <c r="J33" s="43"/>
-    </row>
-    <row r="34" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A34" s="24"/>
-      <c r="B34" s="18"/>
-      <c r="C34" s="18"/>
-      <c r="D34" s="18"/>
-      <c r="E34" s="18"/>
-      <c r="F34" s="18"/>
-      <c r="G34" s="18"/>
-      <c r="H34" s="18"/>
-      <c r="I34" s="18"/>
-      <c r="J34" s="19"/>
-    </row>
-    <row r="35" spans="1:10" ht="282.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A35" s="35"/>
-      <c r="B35" s="36"/>
-      <c r="C35" s="36"/>
-      <c r="D35" s="36"/>
-      <c r="E35" s="36"/>
-      <c r="F35" s="36"/>
-      <c r="G35" s="36"/>
-      <c r="H35" s="36"/>
-      <c r="I35" s="36"/>
-      <c r="J35" s="37"/>
-    </row>
-    <row r="36" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A36" s="24"/>
-      <c r="B36" s="18"/>
-      <c r="C36" s="18"/>
-      <c r="D36" s="18"/>
-      <c r="E36" s="18"/>
-      <c r="F36" s="18"/>
-      <c r="G36" s="18"/>
-      <c r="H36" s="18"/>
-      <c r="I36" s="18"/>
-      <c r="J36" s="19"/>
-    </row>
-    <row r="37" spans="1:10" ht="282.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A37" s="35"/>
-      <c r="B37" s="36"/>
-      <c r="C37" s="36"/>
-      <c r="D37" s="36"/>
-      <c r="E37" s="36"/>
-      <c r="F37" s="36"/>
-      <c r="G37" s="36"/>
-      <c r="H37" s="36"/>
-      <c r="I37" s="36"/>
-      <c r="J37" s="37"/>
-    </row>
-    <row r="38" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A38" s="24"/>
-      <c r="B38" s="18"/>
-      <c r="C38" s="18"/>
-      <c r="D38" s="18"/>
-      <c r="E38" s="18"/>
-      <c r="F38" s="18"/>
-      <c r="G38" s="18"/>
-      <c r="H38" s="18"/>
-      <c r="I38" s="18"/>
-      <c r="J38" s="19"/>
-    </row>
-    <row r="39" spans="1:10" ht="282.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A39" s="38"/>
-      <c r="B39" s="39"/>
-      <c r="C39" s="39"/>
-      <c r="D39" s="39"/>
-      <c r="E39" s="39"/>
-      <c r="F39" s="39"/>
-      <c r="G39" s="39"/>
-      <c r="H39" s="39"/>
-      <c r="I39" s="39"/>
-      <c r="J39" s="40"/>
+    <row r="32" spans="1:10" ht="243.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A32" s="35"/>
+      <c r="B32" s="36"/>
+      <c r="C32" s="36"/>
+      <c r="D32" s="36"/>
+      <c r="E32" s="36"/>
+      <c r="F32" s="36"/>
+      <c r="G32" s="36"/>
+      <c r="H32" s="36"/>
+      <c r="I32" s="36"/>
+      <c r="J32" s="37"/>
+    </row>
+    <row r="33" spans="1:10" ht="85.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A33" s="17" t="s">
+        <v>117</v>
+      </c>
+      <c r="B33" s="18"/>
+      <c r="C33" s="18"/>
+      <c r="D33" s="18"/>
+      <c r="E33" s="18"/>
+      <c r="F33" s="18"/>
+      <c r="G33" s="18"/>
+      <c r="H33" s="18"/>
+      <c r="I33" s="18"/>
+      <c r="J33" s="19"/>
+    </row>
+    <row r="34" spans="1:10" ht="282.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A34" s="35"/>
+      <c r="B34" s="36"/>
+      <c r="C34" s="36"/>
+      <c r="D34" s="36"/>
+      <c r="E34" s="36"/>
+      <c r="F34" s="36"/>
+      <c r="G34" s="36"/>
+      <c r="H34" s="36"/>
+      <c r="I34" s="36"/>
+      <c r="J34" s="37"/>
+    </row>
+    <row r="35" spans="1:10" ht="66" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A35" s="17" t="s">
+        <v>126</v>
+      </c>
+      <c r="B35" s="18"/>
+      <c r="C35" s="18"/>
+      <c r="D35" s="18"/>
+      <c r="E35" s="18"/>
+      <c r="F35" s="18"/>
+      <c r="G35" s="18"/>
+      <c r="H35" s="18"/>
+      <c r="I35" s="18"/>
+      <c r="J35" s="19"/>
+    </row>
+    <row r="36" spans="1:10" ht="243.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A36" s="35"/>
+      <c r="B36" s="36"/>
+      <c r="C36" s="36"/>
+      <c r="D36" s="36"/>
+      <c r="E36" s="36"/>
+      <c r="F36" s="36"/>
+      <c r="G36" s="36"/>
+      <c r="H36" s="36"/>
+      <c r="I36" s="36"/>
+      <c r="J36" s="37"/>
+    </row>
+    <row r="37" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A37" s="24" t="s">
+        <v>118</v>
+      </c>
+      <c r="B37" s="18"/>
+      <c r="C37" s="18"/>
+      <c r="D37" s="18"/>
+      <c r="E37" s="18"/>
+      <c r="F37" s="18"/>
+      <c r="G37" s="18"/>
+      <c r="H37" s="18"/>
+      <c r="I37" s="18"/>
+      <c r="J37" s="19"/>
+    </row>
+    <row r="38" spans="1:10" ht="243.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A38" s="35"/>
+      <c r="B38" s="36"/>
+      <c r="C38" s="36"/>
+      <c r="D38" s="36"/>
+      <c r="E38" s="36"/>
+      <c r="F38" s="36"/>
+      <c r="G38" s="36"/>
+      <c r="H38" s="36"/>
+      <c r="I38" s="36"/>
+      <c r="J38" s="37"/>
+    </row>
+    <row r="39" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A39" s="24" t="s">
+        <v>119</v>
+      </c>
+      <c r="B39" s="18"/>
+      <c r="C39" s="18"/>
+      <c r="D39" s="18"/>
+      <c r="E39" s="18"/>
+      <c r="F39" s="18"/>
+      <c r="G39" s="18"/>
+      <c r="H39" s="18"/>
+      <c r="I39" s="18"/>
+      <c r="J39" s="19"/>
+    </row>
+    <row r="40" spans="1:10" ht="243.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A40" s="35"/>
+      <c r="B40" s="36"/>
+      <c r="C40" s="36"/>
+      <c r="D40" s="36"/>
+      <c r="E40" s="36"/>
+      <c r="F40" s="36"/>
+      <c r="G40" s="36"/>
+      <c r="H40" s="36"/>
+      <c r="I40" s="36"/>
+      <c r="J40" s="37"/>
+    </row>
+    <row r="41" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A41" s="24" t="s">
+        <v>120</v>
+      </c>
+      <c r="B41" s="18"/>
+      <c r="C41" s="18"/>
+      <c r="D41" s="18"/>
+      <c r="E41" s="18"/>
+      <c r="F41" s="18"/>
+      <c r="G41" s="18"/>
+      <c r="H41" s="18"/>
+      <c r="I41" s="18"/>
+      <c r="J41" s="19"/>
+    </row>
+    <row r="42" spans="1:10" ht="243.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A42" s="35"/>
+      <c r="B42" s="36"/>
+      <c r="C42" s="36"/>
+      <c r="D42" s="36"/>
+      <c r="E42" s="36"/>
+      <c r="F42" s="36"/>
+      <c r="G42" s="36"/>
+      <c r="H42" s="36"/>
+      <c r="I42" s="36"/>
+      <c r="J42" s="37"/>
+    </row>
+    <row r="43" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A43" s="24" t="s">
+        <v>121</v>
+      </c>
+      <c r="B43" s="18"/>
+      <c r="C43" s="18"/>
+      <c r="D43" s="18"/>
+      <c r="E43" s="18"/>
+      <c r="F43" s="18"/>
+      <c r="G43" s="18"/>
+      <c r="H43" s="18"/>
+      <c r="I43" s="18"/>
+      <c r="J43" s="19"/>
+    </row>
+    <row r="44" spans="1:10" ht="246" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A44" s="38"/>
+      <c r="B44" s="39"/>
+      <c r="C44" s="39"/>
+      <c r="D44" s="39"/>
+      <c r="E44" s="39"/>
+      <c r="F44" s="39"/>
+      <c r="G44" s="39"/>
+      <c r="H44" s="39"/>
+      <c r="I44" s="39"/>
+      <c r="J44" s="40"/>
+    </row>
+    <row r="45" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A45" s="24" t="s">
+        <v>122</v>
+      </c>
+      <c r="B45" s="18"/>
+      <c r="C45" s="18"/>
+      <c r="D45" s="18"/>
+      <c r="E45" s="18"/>
+      <c r="F45" s="18"/>
+      <c r="G45" s="18"/>
+      <c r="H45" s="18"/>
+      <c r="I45" s="18"/>
+      <c r="J45" s="19"/>
+    </row>
+    <row r="46" spans="1:10" ht="241.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A46" s="35"/>
+      <c r="B46" s="36"/>
+      <c r="C46" s="36"/>
+      <c r="D46" s="36"/>
+      <c r="E46" s="36"/>
+      <c r="F46" s="36"/>
+      <c r="G46" s="36"/>
+      <c r="H46" s="36"/>
+      <c r="I46" s="36"/>
+      <c r="J46" s="37"/>
+    </row>
+    <row r="47" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A47" s="24"/>
+      <c r="B47" s="18"/>
+      <c r="C47" s="18"/>
+      <c r="D47" s="18"/>
+      <c r="E47" s="18"/>
+      <c r="F47" s="18"/>
+      <c r="G47" s="18"/>
+      <c r="H47" s="18"/>
+      <c r="I47" s="18"/>
+      <c r="J47" s="19"/>
+    </row>
+    <row r="48" spans="1:10" ht="229.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A48" s="35"/>
+      <c r="B48" s="36"/>
+      <c r="C48" s="36"/>
+      <c r="D48" s="36"/>
+      <c r="E48" s="36"/>
+      <c r="F48" s="36"/>
+      <c r="G48" s="36"/>
+      <c r="H48" s="36"/>
+      <c r="I48" s="36"/>
+      <c r="J48" s="37"/>
+    </row>
+    <row r="49" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A49" s="24"/>
+      <c r="B49" s="18"/>
+      <c r="C49" s="18"/>
+      <c r="D49" s="18"/>
+      <c r="E49" s="18"/>
+      <c r="F49" s="18"/>
+      <c r="G49" s="18"/>
+      <c r="H49" s="18"/>
+      <c r="I49" s="18"/>
+      <c r="J49" s="19"/>
+    </row>
+    <row r="50" spans="1:10" ht="246" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A50" s="38"/>
+      <c r="B50" s="39"/>
+      <c r="C50" s="39"/>
+      <c r="D50" s="39"/>
+      <c r="E50" s="39"/>
+      <c r="F50" s="39"/>
+      <c r="G50" s="39"/>
+      <c r="H50" s="39"/>
+      <c r="I50" s="39"/>
+      <c r="J50" s="40"/>
+    </row>
+    <row r="51" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A51" s="24"/>
+      <c r="B51" s="18"/>
+      <c r="C51" s="18"/>
+      <c r="D51" s="18"/>
+      <c r="E51" s="18"/>
+      <c r="F51" s="18"/>
+      <c r="G51" s="18"/>
+      <c r="H51" s="18"/>
+      <c r="I51" s="18"/>
+      <c r="J51" s="19"/>
+    </row>
+    <row r="52" spans="1:10" ht="226.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A52" s="35"/>
+      <c r="B52" s="36"/>
+      <c r="C52" s="36"/>
+      <c r="D52" s="36"/>
+      <c r="E52" s="36"/>
+      <c r="F52" s="36"/>
+      <c r="G52" s="36"/>
+      <c r="H52" s="36"/>
+      <c r="I52" s="36"/>
+      <c r="J52" s="37"/>
+    </row>
+    <row r="53" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A53" s="24"/>
+      <c r="B53" s="18"/>
+      <c r="C53" s="18"/>
+      <c r="D53" s="18"/>
+      <c r="E53" s="18"/>
+      <c r="F53" s="18"/>
+      <c r="G53" s="18"/>
+      <c r="H53" s="18"/>
+      <c r="I53" s="18"/>
+      <c r="J53" s="19"/>
+    </row>
+    <row r="54" spans="1:10" ht="234" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A54" s="35"/>
+      <c r="B54" s="36"/>
+      <c r="C54" s="36"/>
+      <c r="D54" s="36"/>
+      <c r="E54" s="36"/>
+      <c r="F54" s="36"/>
+      <c r="G54" s="36"/>
+      <c r="H54" s="36"/>
+      <c r="I54" s="36"/>
+      <c r="J54" s="37"/>
+    </row>
+    <row r="55" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A55" s="24"/>
+      <c r="B55" s="18"/>
+      <c r="C55" s="18"/>
+      <c r="D55" s="18"/>
+      <c r="E55" s="18"/>
+      <c r="F55" s="18"/>
+      <c r="G55" s="18"/>
+      <c r="H55" s="18"/>
+      <c r="I55" s="18"/>
+      <c r="J55" s="19"/>
+    </row>
+    <row r="56" spans="1:10" ht="240.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A56" s="38"/>
+      <c r="B56" s="39"/>
+      <c r="C56" s="39"/>
+      <c r="D56" s="39"/>
+      <c r="E56" s="39"/>
+      <c r="F56" s="39"/>
+      <c r="G56" s="39"/>
+      <c r="H56" s="39"/>
+      <c r="I56" s="39"/>
+      <c r="J56" s="40"/>
+    </row>
+    <row r="57" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A57" s="24"/>
+      <c r="B57" s="18"/>
+      <c r="C57" s="18"/>
+      <c r="D57" s="18"/>
+      <c r="E57" s="18"/>
+      <c r="F57" s="18"/>
+      <c r="G57" s="18"/>
+      <c r="H57" s="18"/>
+      <c r="I57" s="18"/>
+      <c r="J57" s="19"/>
+    </row>
+    <row r="58" spans="1:10" ht="241.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A58" s="35"/>
+      <c r="B58" s="36"/>
+      <c r="C58" s="36"/>
+      <c r="D58" s="36"/>
+      <c r="E58" s="36"/>
+      <c r="F58" s="36"/>
+      <c r="G58" s="36"/>
+      <c r="H58" s="36"/>
+      <c r="I58" s="36"/>
+      <c r="J58" s="37"/>
+    </row>
+    <row r="59" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A59" s="24"/>
+      <c r="B59" s="18"/>
+      <c r="C59" s="18"/>
+      <c r="D59" s="18"/>
+      <c r="E59" s="18"/>
+      <c r="F59" s="18"/>
+      <c r="G59" s="18"/>
+      <c r="H59" s="18"/>
+      <c r="I59" s="18"/>
+      <c r="J59" s="19"/>
+    </row>
+    <row r="60" spans="1:10" ht="229.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A60" s="35"/>
+      <c r="B60" s="36"/>
+      <c r="C60" s="36"/>
+      <c r="D60" s="36"/>
+      <c r="E60" s="36"/>
+      <c r="F60" s="36"/>
+      <c r="G60" s="36"/>
+      <c r="H60" s="36"/>
+      <c r="I60" s="36"/>
+      <c r="J60" s="37"/>
+    </row>
+    <row r="61" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A61" s="24"/>
+      <c r="B61" s="18"/>
+      <c r="C61" s="18"/>
+      <c r="D61" s="18"/>
+      <c r="E61" s="18"/>
+      <c r="F61" s="18"/>
+      <c r="G61" s="18"/>
+      <c r="H61" s="18"/>
+      <c r="I61" s="18"/>
+      <c r="J61" s="19"/>
+    </row>
+    <row r="62" spans="1:10" ht="246" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A62" s="38"/>
+      <c r="B62" s="39"/>
+      <c r="C62" s="39"/>
+      <c r="D62" s="39"/>
+      <c r="E62" s="39"/>
+      <c r="F62" s="39"/>
+      <c r="G62" s="39"/>
+      <c r="H62" s="39"/>
+      <c r="I62" s="39"/>
+      <c r="J62" s="40"/>
+    </row>
+    <row r="63" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A63" s="24"/>
+      <c r="B63" s="18"/>
+      <c r="C63" s="18"/>
+      <c r="D63" s="18"/>
+      <c r="E63" s="18"/>
+      <c r="F63" s="18"/>
+      <c r="G63" s="18"/>
+      <c r="H63" s="18"/>
+      <c r="I63" s="18"/>
+      <c r="J63" s="19"/>
+    </row>
+    <row r="64" spans="1:10" ht="226.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A64" s="35"/>
+      <c r="B64" s="36"/>
+      <c r="C64" s="36"/>
+      <c r="D64" s="36"/>
+      <c r="E64" s="36"/>
+      <c r="F64" s="36"/>
+      <c r="G64" s="36"/>
+      <c r="H64" s="36"/>
+      <c r="I64" s="36"/>
+      <c r="J64" s="37"/>
+    </row>
+    <row r="65" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A65" s="24"/>
+      <c r="B65" s="18"/>
+      <c r="C65" s="18"/>
+      <c r="D65" s="18"/>
+      <c r="E65" s="18"/>
+      <c r="F65" s="18"/>
+      <c r="G65" s="18"/>
+      <c r="H65" s="18"/>
+      <c r="I65" s="18"/>
+      <c r="J65" s="19"/>
+    </row>
+    <row r="66" spans="1:10" ht="234" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A66" s="35"/>
+      <c r="B66" s="36"/>
+      <c r="C66" s="36"/>
+      <c r="D66" s="36"/>
+      <c r="E66" s="36"/>
+      <c r="F66" s="36"/>
+      <c r="G66" s="36"/>
+      <c r="H66" s="36"/>
+      <c r="I66" s="36"/>
+      <c r="J66" s="37"/>
+    </row>
+    <row r="67" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A67" s="24"/>
+      <c r="B67" s="18"/>
+      <c r="C67" s="18"/>
+      <c r="D67" s="18"/>
+      <c r="E67" s="18"/>
+      <c r="F67" s="18"/>
+      <c r="G67" s="18"/>
+      <c r="H67" s="18"/>
+      <c r="I67" s="18"/>
+      <c r="J67" s="19"/>
+    </row>
+    <row r="68" spans="1:10" ht="240.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A68" s="38"/>
+      <c r="B68" s="39"/>
+      <c r="C68" s="39"/>
+      <c r="D68" s="39"/>
+      <c r="E68" s="39"/>
+      <c r="F68" s="39"/>
+      <c r="G68" s="39"/>
+      <c r="H68" s="39"/>
+      <c r="I68" s="39"/>
+      <c r="J68" s="40"/>
     </row>
   </sheetData>
-  <mergeCells count="35">
-    <mergeCell ref="A29:J29"/>
-    <mergeCell ref="A30:J30"/>
-    <mergeCell ref="A31:J31"/>
+  <mergeCells count="64">
+    <mergeCell ref="A13:J13"/>
+    <mergeCell ref="A14:J14"/>
     <mergeCell ref="A2:B2"/>
     <mergeCell ref="A3:B3"/>
     <mergeCell ref="A12:J12"/>
@@ -3042,30 +4073,60 @@
     <mergeCell ref="E3:J3"/>
     <mergeCell ref="A4:B4"/>
     <mergeCell ref="E4:J4"/>
+    <mergeCell ref="A25:J25"/>
+    <mergeCell ref="A26:J26"/>
+    <mergeCell ref="A27:J27"/>
+    <mergeCell ref="A33:J33"/>
+    <mergeCell ref="A34:J34"/>
+    <mergeCell ref="A30:J30"/>
+    <mergeCell ref="A28:J28"/>
+    <mergeCell ref="A31:J31"/>
+    <mergeCell ref="A32:J32"/>
+    <mergeCell ref="A35:J35"/>
+    <mergeCell ref="A36:J36"/>
+    <mergeCell ref="A37:J37"/>
+    <mergeCell ref="A38:J38"/>
+    <mergeCell ref="A39:J39"/>
+    <mergeCell ref="A40:J40"/>
+    <mergeCell ref="A48:J48"/>
+    <mergeCell ref="A49:J49"/>
+    <mergeCell ref="A50:J50"/>
+    <mergeCell ref="A44:J44"/>
+    <mergeCell ref="A45:J45"/>
+    <mergeCell ref="A46:J46"/>
+    <mergeCell ref="A47:J47"/>
+    <mergeCell ref="A41:J41"/>
+    <mergeCell ref="A42:J42"/>
+    <mergeCell ref="A43:J43"/>
+    <mergeCell ref="A51:J51"/>
+    <mergeCell ref="A52:J52"/>
+    <mergeCell ref="A53:J53"/>
+    <mergeCell ref="A54:J54"/>
+    <mergeCell ref="A55:J55"/>
+    <mergeCell ref="A63:J63"/>
+    <mergeCell ref="A64:J64"/>
+    <mergeCell ref="A65:J65"/>
+    <mergeCell ref="A56:J56"/>
+    <mergeCell ref="A57:J57"/>
+    <mergeCell ref="A58:J58"/>
+    <mergeCell ref="A59:J59"/>
+    <mergeCell ref="A60:J60"/>
+    <mergeCell ref="A66:J66"/>
+    <mergeCell ref="A67:J67"/>
+    <mergeCell ref="A68:J68"/>
+    <mergeCell ref="A15:J15"/>
+    <mergeCell ref="A16:J16"/>
+    <mergeCell ref="A17:J17"/>
     <mergeCell ref="A18:J18"/>
     <mergeCell ref="A19:J19"/>
     <mergeCell ref="A20:J20"/>
-    <mergeCell ref="A13:J13"/>
-    <mergeCell ref="A14:J14"/>
-    <mergeCell ref="A15:J15"/>
-    <mergeCell ref="A16:J16"/>
-    <mergeCell ref="A17:J17"/>
     <mergeCell ref="A21:J21"/>
     <mergeCell ref="A22:J22"/>
     <mergeCell ref="A23:J23"/>
     <mergeCell ref="A24:J24"/>
-    <mergeCell ref="A25:J25"/>
-    <mergeCell ref="A26:J26"/>
-    <mergeCell ref="A27:J27"/>
-    <mergeCell ref="A28:J28"/>
-    <mergeCell ref="A37:J37"/>
-    <mergeCell ref="A38:J38"/>
-    <mergeCell ref="A39:J39"/>
-    <mergeCell ref="A32:J32"/>
-    <mergeCell ref="A33:J33"/>
-    <mergeCell ref="A34:J34"/>
-    <mergeCell ref="A35:J35"/>
-    <mergeCell ref="A36:J36"/>
+    <mergeCell ref="A29:J29"/>
+    <mergeCell ref="A61:J61"/>
+    <mergeCell ref="A62:J62"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/etc/doc/단위테스트결과서/단위테스트결과서(UT-ETP-OP-10).xlsx
+++ b/etc/doc/단위테스트결과서/단위테스트결과서(UT-ETP-OP-10).xlsx
@@ -26,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="214" uniqueCount="132">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="266" uniqueCount="132">
   <si>
     <t>순번</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -126,10 +126,6 @@
   <si>
     <t>테스트 
 완료일자</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>YYYY-MM-DD</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
@@ -605,6 +601,10 @@
 user/etp/etpUpload.js
 user/etpinfo/etpOper.xml
 Home/Etp/Manage/EtpOperPdfEmergencyModifyPop.vue</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Y</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -861,9 +861,6 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
@@ -896,6 +893,9 @@
     </xf>
     <xf numFmtId="0" fontId="4" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="3" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -1984,7 +1984,7 @@
   <dimension ref="A2:J41"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D8" sqref="D8"/>
+      <selection activeCell="C3" sqref="C3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -2009,7 +2009,7 @@
       <c r="G2" s="2"/>
       <c r="H2" s="2"/>
       <c r="I2" s="2"/>
-      <c r="J2" s="9" t="s">
+      <c r="J2" s="8" t="s">
         <v>23</v>
       </c>
     </row>
@@ -2018,14 +2018,14 @@
         <v>11</v>
       </c>
       <c r="B3" s="16"/>
-      <c r="C3" s="11" t="s">
-        <v>47</v>
-      </c>
-      <c r="D3" s="12" t="s">
+      <c r="C3" s="10" t="s">
+        <v>46</v>
+      </c>
+      <c r="D3" s="11" t="s">
         <v>15</v>
       </c>
       <c r="E3" s="24" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="F3" s="19"/>
       <c r="G3" s="25" t="s">
@@ -2035,8 +2035,8 @@
         <v>18</v>
       </c>
       <c r="I3" s="16"/>
-      <c r="J3" s="3" t="s">
-        <v>25</v>
+      <c r="J3" s="14">
+        <v>43822</v>
       </c>
     </row>
     <row r="4" spans="1:10" ht="24.95" customHeight="1" x14ac:dyDescent="0.3">
@@ -2044,14 +2044,14 @@
         <v>12</v>
       </c>
       <c r="B4" s="16"/>
-      <c r="C4" s="4" t="s">
-        <v>45</v>
-      </c>
-      <c r="D4" s="12" t="s">
+      <c r="C4" s="3" t="s">
+        <v>44</v>
+      </c>
+      <c r="D4" s="11" t="s">
         <v>16</v>
       </c>
       <c r="E4" s="24" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="F4" s="19"/>
       <c r="G4" s="26"/>
@@ -2059,8 +2059,8 @@
         <v>19</v>
       </c>
       <c r="I4" s="16"/>
-      <c r="J4" s="3" t="s">
-        <v>25</v>
+      <c r="J4" s="14">
+        <v>43825</v>
       </c>
     </row>
     <row r="5" spans="1:10" ht="24.95" customHeight="1" x14ac:dyDescent="0.3">
@@ -2069,13 +2069,13 @@
       </c>
       <c r="B5" s="16"/>
       <c r="C5" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="D5" s="11" t="s">
+        <v>17</v>
+      </c>
+      <c r="E5" s="24" t="s">
         <v>48</v>
-      </c>
-      <c r="D5" s="12" t="s">
-        <v>17</v>
-      </c>
-      <c r="E5" s="24" t="s">
-        <v>49</v>
       </c>
       <c r="F5" s="19"/>
       <c r="G5" s="27"/>
@@ -2083,8 +2083,8 @@
         <v>20</v>
       </c>
       <c r="I5" s="16"/>
-      <c r="J5" s="3" t="s">
-        <v>25</v>
+      <c r="J5" s="14">
+        <v>43829</v>
       </c>
     </row>
     <row r="6" spans="1:10" ht="73.5" customHeight="1" x14ac:dyDescent="0.3">
@@ -2093,7 +2093,7 @@
       </c>
       <c r="B6" s="16"/>
       <c r="C6" s="17" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="D6" s="18"/>
       <c r="E6" s="18"/>
@@ -2109,7 +2109,7 @@
       </c>
       <c r="B7" s="16"/>
       <c r="C7" s="17" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="D7" s="18"/>
       <c r="E7" s="18"/>
@@ -2166,640 +2166,712 @@
       <c r="D10" s="21"/>
       <c r="E10" s="21"/>
       <c r="F10" s="21"/>
-      <c r="G10" s="7" t="s">
+      <c r="G10" s="6" t="s">
         <v>7</v>
       </c>
-      <c r="H10" s="7" t="s">
+      <c r="H10" s="6" t="s">
         <v>8</v>
       </c>
-      <c r="I10" s="7" t="s">
+      <c r="I10" s="6" t="s">
         <v>9</v>
       </c>
       <c r="J10" s="21"/>
     </row>
     <row r="11" spans="1:10" ht="48.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A11" s="5">
+      <c r="A11" s="4">
         <v>1</v>
       </c>
-      <c r="B11" s="4" t="s">
-        <v>26</v>
-      </c>
-      <c r="C11" s="6" t="s">
+      <c r="B11" s="3" t="s">
+        <v>25</v>
+      </c>
+      <c r="C11" s="5" t="s">
+        <v>104</v>
+      </c>
+      <c r="D11" s="5" t="s">
+        <v>123</v>
+      </c>
+      <c r="E11" s="5" t="s">
         <v>105</v>
       </c>
-      <c r="D11" s="6" t="s">
+      <c r="F11" s="5" t="s">
+        <v>103</v>
+      </c>
+      <c r="G11" s="3" t="s">
+        <v>129</v>
+      </c>
+      <c r="H11" s="3" t="s">
+        <v>129</v>
+      </c>
+      <c r="I11" s="3" t="s">
+        <v>129</v>
+      </c>
+      <c r="J11" s="3"/>
+    </row>
+    <row r="12" spans="1:10" ht="76.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A12" s="4">
+        <v>2</v>
+      </c>
+      <c r="B12" s="3" t="s">
+        <v>25</v>
+      </c>
+      <c r="C12" s="5" t="s">
+        <v>51</v>
+      </c>
+      <c r="D12" s="5" t="s">
+        <v>122</v>
+      </c>
+      <c r="E12" s="5" t="s">
+        <v>78</v>
+      </c>
+      <c r="F12" s="5" t="s">
+        <v>79</v>
+      </c>
+      <c r="G12" s="3" t="s">
+        <v>129</v>
+      </c>
+      <c r="H12" s="3" t="s">
+        <v>129</v>
+      </c>
+      <c r="I12" s="3" t="s">
+        <v>129</v>
+      </c>
+      <c r="J12" s="3"/>
+    </row>
+    <row r="13" spans="1:10" ht="76.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A13" s="4">
+        <v>3</v>
+      </c>
+      <c r="B13" s="3" t="s">
+        <v>25</v>
+      </c>
+      <c r="C13" s="5" t="s">
+        <v>69</v>
+      </c>
+      <c r="D13" s="5" t="s">
         <v>124</v>
       </c>
-      <c r="E11" s="6" t="s">
-        <v>106</v>
-      </c>
-      <c r="F11" s="6" t="s">
-        <v>104</v>
-      </c>
-      <c r="G11" s="4" t="s">
-        <v>130</v>
-      </c>
-      <c r="H11" s="4"/>
-      <c r="I11" s="4"/>
-      <c r="J11" s="4"/>
-    </row>
-    <row r="12" spans="1:10" ht="76.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A12" s="5">
-        <v>2</v>
-      </c>
-      <c r="B12" s="4" t="s">
-        <v>26</v>
-      </c>
-      <c r="C12" s="6" t="s">
-        <v>52</v>
-      </c>
-      <c r="D12" s="6" t="s">
+      <c r="E13" s="5" t="s">
+        <v>80</v>
+      </c>
+      <c r="F13" s="5" t="s">
+        <v>59</v>
+      </c>
+      <c r="G13" s="3" t="s">
+        <v>129</v>
+      </c>
+      <c r="H13" s="3" t="s">
+        <v>129</v>
+      </c>
+      <c r="I13" s="3" t="s">
+        <v>129</v>
+      </c>
+      <c r="J13" s="3"/>
+    </row>
+    <row r="14" spans="1:10" ht="76.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A14" s="4">
+        <v>4</v>
+      </c>
+      <c r="B14" s="3" t="s">
+        <v>25</v>
+      </c>
+      <c r="C14" s="5" t="s">
+        <v>68</v>
+      </c>
+      <c r="D14" s="5" t="s">
         <v>123</v>
       </c>
-      <c r="E12" s="6" t="s">
-        <v>79</v>
-      </c>
-      <c r="F12" s="6" t="s">
-        <v>80</v>
-      </c>
-      <c r="G12" s="4" t="s">
-        <v>130</v>
-      </c>
-      <c r="H12" s="4"/>
-      <c r="I12" s="4"/>
-      <c r="J12" s="4"/>
-    </row>
-    <row r="13" spans="1:10" ht="76.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A13" s="5">
-        <v>3</v>
-      </c>
-      <c r="B13" s="4" t="s">
-        <v>26</v>
-      </c>
-      <c r="C13" s="6" t="s">
+      <c r="E14" s="5" t="s">
+        <v>81</v>
+      </c>
+      <c r="F14" s="5" t="s">
+        <v>60</v>
+      </c>
+      <c r="G14" s="3" t="s">
+        <v>129</v>
+      </c>
+      <c r="H14" s="3" t="s">
+        <v>129</v>
+      </c>
+      <c r="I14" s="3" t="s">
+        <v>129</v>
+      </c>
+      <c r="J14" s="3"/>
+    </row>
+    <row r="15" spans="1:10" ht="76.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A15" s="4">
+        <v>5</v>
+      </c>
+      <c r="B15" s="3" t="s">
+        <v>25</v>
+      </c>
+      <c r="C15" s="5" t="s">
         <v>70</v>
       </c>
-      <c r="D13" s="6" t="s">
-        <v>125</v>
-      </c>
-      <c r="E13" s="6" t="s">
-        <v>81</v>
-      </c>
-      <c r="F13" s="6" t="s">
-        <v>60</v>
-      </c>
-      <c r="G13" s="4" t="s">
-        <v>130</v>
-      </c>
-      <c r="H13" s="4"/>
-      <c r="I13" s="4"/>
-      <c r="J13" s="4"/>
-    </row>
-    <row r="14" spans="1:10" ht="76.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A14" s="5">
-        <v>4</v>
-      </c>
-      <c r="B14" s="4" t="s">
-        <v>26</v>
-      </c>
-      <c r="C14" s="6" t="s">
-        <v>69</v>
-      </c>
-      <c r="D14" s="6" t="s">
-        <v>124</v>
-      </c>
-      <c r="E14" s="6" t="s">
+      <c r="D15" s="5" t="s">
+        <v>123</v>
+      </c>
+      <c r="E15" s="5" t="s">
         <v>82</v>
       </c>
-      <c r="F14" s="6" t="s">
+      <c r="F15" s="5" t="s">
         <v>61</v>
       </c>
-      <c r="G14" s="4" t="s">
-        <v>130</v>
-      </c>
-      <c r="H14" s="4"/>
-      <c r="I14" s="4"/>
-      <c r="J14" s="4"/>
-    </row>
-    <row r="15" spans="1:10" ht="76.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A15" s="5">
-        <v>5</v>
-      </c>
-      <c r="B15" s="4" t="s">
-        <v>26</v>
-      </c>
-      <c r="C15" s="6" t="s">
+      <c r="G15" s="3" t="s">
+        <v>129</v>
+      </c>
+      <c r="H15" s="3" t="s">
+        <v>129</v>
+      </c>
+      <c r="I15" s="3" t="s">
+        <v>129</v>
+      </c>
+      <c r="J15" s="3"/>
+    </row>
+    <row r="16" spans="1:10" ht="76.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A16" s="4">
+        <v>6</v>
+      </c>
+      <c r="B16" s="3" t="s">
+        <v>25</v>
+      </c>
+      <c r="C16" s="5" t="s">
         <v>71</v>
       </c>
-      <c r="D15" s="6" t="s">
-        <v>124</v>
-      </c>
-      <c r="E15" s="6" t="s">
+      <c r="D16" s="5" t="s">
+        <v>123</v>
+      </c>
+      <c r="E16" s="5" t="s">
         <v>83</v>
       </c>
-      <c r="F15" s="6" t="s">
+      <c r="F16" s="5" t="s">
         <v>62</v>
       </c>
-      <c r="G15" s="4" t="s">
-        <v>130</v>
-      </c>
-      <c r="H15" s="4"/>
-      <c r="I15" s="4"/>
-      <c r="J15" s="4"/>
-    </row>
-    <row r="16" spans="1:10" ht="76.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A16" s="5">
-        <v>6</v>
-      </c>
-      <c r="B16" s="4" t="s">
-        <v>26</v>
-      </c>
-      <c r="C16" s="6" t="s">
+      <c r="G16" s="3" t="s">
+        <v>129</v>
+      </c>
+      <c r="H16" s="3" t="s">
+        <v>129</v>
+      </c>
+      <c r="I16" s="3" t="s">
+        <v>129</v>
+      </c>
+      <c r="J16" s="3"/>
+    </row>
+    <row r="17" spans="1:10" ht="76.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A17" s="4">
+        <v>7</v>
+      </c>
+      <c r="B17" s="3" t="s">
+        <v>25</v>
+      </c>
+      <c r="C17" s="5" t="s">
+        <v>67</v>
+      </c>
+      <c r="D17" s="5" t="s">
+        <v>123</v>
+      </c>
+      <c r="E17" s="5" t="s">
+        <v>84</v>
+      </c>
+      <c r="F17" s="5" t="s">
+        <v>64</v>
+      </c>
+      <c r="G17" s="3" t="s">
+        <v>129</v>
+      </c>
+      <c r="H17" s="3" t="s">
+        <v>129</v>
+      </c>
+      <c r="I17" s="3" t="s">
+        <v>129</v>
+      </c>
+      <c r="J17" s="3"/>
+    </row>
+    <row r="18" spans="1:10" ht="52.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A18" s="4">
+        <v>8</v>
+      </c>
+      <c r="B18" s="3" t="s">
+        <v>25</v>
+      </c>
+      <c r="C18" s="5" t="s">
+        <v>55</v>
+      </c>
+      <c r="D18" s="5" t="s">
+        <v>123</v>
+      </c>
+      <c r="E18" s="5" t="s">
+        <v>85</v>
+      </c>
+      <c r="F18" s="5" t="s">
+        <v>86</v>
+      </c>
+      <c r="G18" s="3" t="s">
+        <v>129</v>
+      </c>
+      <c r="H18" s="3" t="s">
+        <v>129</v>
+      </c>
+      <c r="I18" s="3" t="s">
+        <v>129</v>
+      </c>
+      <c r="J18" s="3"/>
+    </row>
+    <row r="19" spans="1:10" ht="52.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A19" s="4">
+        <v>9</v>
+      </c>
+      <c r="B19" s="3" t="s">
+        <v>25</v>
+      </c>
+      <c r="C19" s="5" t="s">
+        <v>56</v>
+      </c>
+      <c r="D19" s="5" t="s">
+        <v>123</v>
+      </c>
+      <c r="E19" s="5" t="s">
+        <v>87</v>
+      </c>
+      <c r="F19" s="5" t="s">
+        <v>88</v>
+      </c>
+      <c r="G19" s="3" t="s">
+        <v>129</v>
+      </c>
+      <c r="H19" s="3" t="s">
+        <v>129</v>
+      </c>
+      <c r="I19" s="3" t="s">
+        <v>129</v>
+      </c>
+      <c r="J19" s="12"/>
+    </row>
+    <row r="20" spans="1:10" ht="52.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A20" s="4">
+        <v>10</v>
+      </c>
+      <c r="B20" s="3" t="s">
+        <v>25</v>
+      </c>
+      <c r="C20" s="5" t="s">
+        <v>65</v>
+      </c>
+      <c r="D20" s="5" t="s">
+        <v>123</v>
+      </c>
+      <c r="E20" s="5" t="s">
+        <v>89</v>
+      </c>
+      <c r="F20" s="5" t="s">
+        <v>90</v>
+      </c>
+      <c r="G20" s="3" t="s">
+        <v>129</v>
+      </c>
+      <c r="H20" s="3" t="s">
+        <v>129</v>
+      </c>
+      <c r="I20" s="3" t="s">
+        <v>129</v>
+      </c>
+      <c r="J20" s="12"/>
+    </row>
+    <row r="21" spans="1:10" ht="69" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A21" s="4">
+        <v>11</v>
+      </c>
+      <c r="B21" s="3" t="s">
+        <v>25</v>
+      </c>
+      <c r="C21" s="5" t="s">
+        <v>66</v>
+      </c>
+      <c r="D21" s="5" t="s">
+        <v>123</v>
+      </c>
+      <c r="E21" s="5" t="s">
+        <v>91</v>
+      </c>
+      <c r="F21" s="5" t="s">
+        <v>92</v>
+      </c>
+      <c r="G21" s="3" t="s">
+        <v>129</v>
+      </c>
+      <c r="H21" s="3" t="s">
+        <v>129</v>
+      </c>
+      <c r="I21" s="3" t="s">
+        <v>129</v>
+      </c>
+      <c r="J21" s="12"/>
+    </row>
+    <row r="22" spans="1:10" ht="110.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A22" s="4">
+        <v>12</v>
+      </c>
+      <c r="B22" s="3" t="s">
+        <v>25</v>
+      </c>
+      <c r="C22" s="5" t="s">
+        <v>58</v>
+      </c>
+      <c r="D22" s="5" t="s">
+        <v>123</v>
+      </c>
+      <c r="E22" s="5" t="s">
+        <v>93</v>
+      </c>
+      <c r="F22" s="5" t="s">
+        <v>94</v>
+      </c>
+      <c r="G22" s="3" t="s">
+        <v>129</v>
+      </c>
+      <c r="H22" s="3" t="s">
+        <v>129</v>
+      </c>
+      <c r="I22" s="3" t="s">
+        <v>129</v>
+      </c>
+      <c r="J22" s="3"/>
+    </row>
+    <row r="23" spans="1:10" ht="103.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A23" s="4">
+        <v>13</v>
+      </c>
+      <c r="B23" s="3" t="s">
+        <v>25</v>
+      </c>
+      <c r="C23" s="5" t="s">
+        <v>126</v>
+      </c>
+      <c r="D23" s="5" t="s">
+        <v>123</v>
+      </c>
+      <c r="E23" s="5" t="s">
+        <v>127</v>
+      </c>
+      <c r="F23" s="5" t="s">
+        <v>128</v>
+      </c>
+      <c r="G23" s="3" t="s">
+        <v>129</v>
+      </c>
+      <c r="H23" s="3" t="s">
+        <v>129</v>
+      </c>
+      <c r="I23" s="3" t="s">
+        <v>129</v>
+      </c>
+      <c r="J23" s="3"/>
+    </row>
+    <row r="24" spans="1:10" ht="69" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A24" s="4">
+        <v>14</v>
+      </c>
+      <c r="B24" s="3" t="s">
+        <v>25</v>
+      </c>
+      <c r="C24" s="5" t="s">
         <v>72</v>
       </c>
-      <c r="D16" s="6" t="s">
-        <v>124</v>
-      </c>
-      <c r="E16" s="6" t="s">
-        <v>84</v>
-      </c>
-      <c r="F16" s="6" t="s">
+      <c r="D24" s="5" t="s">
+        <v>123</v>
+      </c>
+      <c r="E24" s="5" t="s">
+        <v>95</v>
+      </c>
+      <c r="F24" s="5" t="s">
+        <v>96</v>
+      </c>
+      <c r="G24" s="3" t="s">
+        <v>129</v>
+      </c>
+      <c r="H24" s="3" t="s">
+        <v>129</v>
+      </c>
+      <c r="I24" s="3" t="s">
+        <v>129</v>
+      </c>
+      <c r="J24" s="3"/>
+    </row>
+    <row r="25" spans="1:10" ht="69" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A25" s="4">
+        <v>15</v>
+      </c>
+      <c r="B25" s="3" t="s">
+        <v>25</v>
+      </c>
+      <c r="C25" s="5" t="s">
+        <v>57</v>
+      </c>
+      <c r="D25" s="5" t="s">
+        <v>123</v>
+      </c>
+      <c r="E25" s="5" t="s">
+        <v>97</v>
+      </c>
+      <c r="F25" s="5" t="s">
+        <v>98</v>
+      </c>
+      <c r="G25" s="3" t="s">
+        <v>129</v>
+      </c>
+      <c r="H25" s="3" t="s">
+        <v>129</v>
+      </c>
+      <c r="I25" s="3" t="s">
+        <v>129</v>
+      </c>
+      <c r="J25" s="3"/>
+    </row>
+    <row r="26" spans="1:10" ht="66" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A26" s="4">
+        <v>16</v>
+      </c>
+      <c r="B26" s="3" t="s">
+        <v>25</v>
+      </c>
+      <c r="C26" s="5" t="s">
+        <v>73</v>
+      </c>
+      <c r="D26" s="5" t="s">
+        <v>123</v>
+      </c>
+      <c r="E26" s="5" t="s">
+        <v>99</v>
+      </c>
+      <c r="F26" s="5" t="s">
+        <v>100</v>
+      </c>
+      <c r="G26" s="3" t="s">
+        <v>129</v>
+      </c>
+      <c r="H26" s="3" t="s">
+        <v>129</v>
+      </c>
+      <c r="I26" s="3" t="s">
+        <v>129</v>
+      </c>
+      <c r="J26" s="3"/>
+    </row>
+    <row r="27" spans="1:10" ht="69" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A27" s="4">
+        <v>17</v>
+      </c>
+      <c r="B27" s="3" t="s">
+        <v>25</v>
+      </c>
+      <c r="C27" s="5" t="s">
+        <v>74</v>
+      </c>
+      <c r="D27" s="5" t="s">
         <v>63</v>
       </c>
-      <c r="G16" s="4" t="s">
-        <v>130</v>
-      </c>
-      <c r="H16" s="4"/>
-      <c r="I16" s="4"/>
-      <c r="J16" s="4"/>
-    </row>
-    <row r="17" spans="1:10" ht="76.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A17" s="5">
-        <v>7</v>
-      </c>
-      <c r="B17" s="4" t="s">
-        <v>26</v>
-      </c>
-      <c r="C17" s="6" t="s">
-        <v>68</v>
-      </c>
-      <c r="D17" s="6" t="s">
-        <v>124</v>
-      </c>
-      <c r="E17" s="6" t="s">
-        <v>85</v>
-      </c>
-      <c r="F17" s="6" t="s">
-        <v>65</v>
-      </c>
-      <c r="G17" s="4" t="s">
-        <v>130</v>
-      </c>
-      <c r="H17" s="4"/>
-      <c r="I17" s="4"/>
-      <c r="J17" s="4"/>
-    </row>
-    <row r="18" spans="1:10" ht="52.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A18" s="5">
-        <v>8</v>
-      </c>
-      <c r="B18" s="4" t="s">
-        <v>26</v>
-      </c>
-      <c r="C18" s="6" t="s">
-        <v>56</v>
-      </c>
-      <c r="D18" s="6" t="s">
-        <v>124</v>
-      </c>
-      <c r="E18" s="6" t="s">
-        <v>86</v>
-      </c>
-      <c r="F18" s="6" t="s">
-        <v>87</v>
-      </c>
-      <c r="G18" s="4" t="s">
-        <v>130</v>
-      </c>
-      <c r="H18" s="4"/>
-      <c r="I18" s="4"/>
-      <c r="J18" s="4"/>
-    </row>
-    <row r="19" spans="1:10" ht="52.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A19" s="5">
-        <v>9</v>
-      </c>
-      <c r="B19" s="4" t="s">
-        <v>26</v>
-      </c>
-      <c r="C19" s="6" t="s">
-        <v>57</v>
-      </c>
-      <c r="D19" s="6" t="s">
-        <v>124</v>
-      </c>
-      <c r="E19" s="6" t="s">
-        <v>88</v>
-      </c>
-      <c r="F19" s="6" t="s">
-        <v>89</v>
-      </c>
-      <c r="G19" s="4" t="s">
-        <v>130</v>
-      </c>
-      <c r="H19" s="13"/>
-      <c r="I19" s="13"/>
-      <c r="J19" s="13"/>
-    </row>
-    <row r="20" spans="1:10" ht="52.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A20" s="5">
-        <v>10</v>
-      </c>
-      <c r="B20" s="4" t="s">
-        <v>26</v>
-      </c>
-      <c r="C20" s="6" t="s">
-        <v>66</v>
-      </c>
-      <c r="D20" s="6" t="s">
-        <v>124</v>
-      </c>
-      <c r="E20" s="6" t="s">
-        <v>90</v>
-      </c>
-      <c r="F20" s="6" t="s">
-        <v>91</v>
-      </c>
-      <c r="G20" s="4" t="s">
-        <v>130</v>
-      </c>
-      <c r="H20" s="13"/>
-      <c r="I20" s="13"/>
-      <c r="J20" s="13"/>
-    </row>
-    <row r="21" spans="1:10" ht="69" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A21" s="5">
-        <v>11</v>
-      </c>
-      <c r="B21" s="4" t="s">
-        <v>26</v>
-      </c>
-      <c r="C21" s="6" t="s">
-        <v>67</v>
-      </c>
-      <c r="D21" s="6" t="s">
-        <v>124</v>
-      </c>
-      <c r="E21" s="6" t="s">
-        <v>92</v>
-      </c>
-      <c r="F21" s="6" t="s">
-        <v>93</v>
-      </c>
-      <c r="G21" s="4" t="s">
-        <v>130</v>
-      </c>
-      <c r="H21" s="13"/>
-      <c r="I21" s="13"/>
-      <c r="J21" s="13"/>
-    </row>
-    <row r="22" spans="1:10" ht="110.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A22" s="5">
-        <v>12</v>
-      </c>
-      <c r="B22" s="4" t="s">
-        <v>26</v>
-      </c>
-      <c r="C22" s="6" t="s">
-        <v>59</v>
-      </c>
-      <c r="D22" s="6" t="s">
-        <v>124</v>
-      </c>
-      <c r="E22" s="6" t="s">
-        <v>94</v>
-      </c>
-      <c r="F22" s="6" t="s">
-        <v>95</v>
-      </c>
-      <c r="G22" s="4" t="s">
-        <v>130</v>
-      </c>
-      <c r="H22" s="4"/>
-      <c r="I22" s="4"/>
-      <c r="J22" s="4"/>
-    </row>
-    <row r="23" spans="1:10" ht="103.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A23" s="5">
-        <v>13</v>
-      </c>
-      <c r="B23" s="4" t="s">
-        <v>26</v>
-      </c>
-      <c r="C23" s="6" t="s">
-        <v>127</v>
-      </c>
-      <c r="D23" s="6" t="s">
-        <v>124</v>
-      </c>
-      <c r="E23" s="6" t="s">
-        <v>128</v>
-      </c>
-      <c r="F23" s="6" t="s">
-        <v>129</v>
-      </c>
-      <c r="G23" s="4" t="s">
-        <v>130</v>
-      </c>
-      <c r="H23" s="4"/>
-      <c r="I23" s="4"/>
-      <c r="J23" s="4"/>
-    </row>
-    <row r="24" spans="1:10" ht="69" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A24" s="5">
-        <v>14</v>
-      </c>
-      <c r="B24" s="4" t="s">
-        <v>26</v>
-      </c>
-      <c r="C24" s="6" t="s">
-        <v>73</v>
-      </c>
-      <c r="D24" s="6" t="s">
-        <v>124</v>
-      </c>
-      <c r="E24" s="6" t="s">
-        <v>96</v>
-      </c>
-      <c r="F24" s="6" t="s">
-        <v>97</v>
-      </c>
-      <c r="G24" s="4" t="s">
-        <v>130</v>
-      </c>
-      <c r="H24" s="4"/>
-      <c r="I24" s="4"/>
-      <c r="J24" s="4"/>
-    </row>
-    <row r="25" spans="1:10" ht="69" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A25" s="5">
-        <v>15</v>
-      </c>
-      <c r="B25" s="4" t="s">
-        <v>26</v>
-      </c>
-      <c r="C25" s="6" t="s">
-        <v>58</v>
-      </c>
-      <c r="D25" s="6" t="s">
-        <v>124</v>
-      </c>
-      <c r="E25" s="6" t="s">
-        <v>98</v>
-      </c>
-      <c r="F25" s="6" t="s">
-        <v>99</v>
-      </c>
-      <c r="G25" s="4" t="s">
-        <v>130</v>
-      </c>
-      <c r="H25" s="4"/>
-      <c r="I25" s="4"/>
-      <c r="J25" s="4"/>
-    </row>
-    <row r="26" spans="1:10" ht="66" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A26" s="5">
-        <v>16</v>
-      </c>
-      <c r="B26" s="4" t="s">
-        <v>26</v>
-      </c>
-      <c r="C26" s="6" t="s">
-        <v>74</v>
-      </c>
-      <c r="D26" s="6" t="s">
-        <v>124</v>
-      </c>
-      <c r="E26" s="6" t="s">
-        <v>100</v>
-      </c>
-      <c r="F26" s="6" t="s">
+      <c r="E27" s="5" t="s">
         <v>101</v>
       </c>
-      <c r="G26" s="4" t="s">
-        <v>130</v>
-      </c>
-      <c r="H26" s="4"/>
-      <c r="I26" s="4"/>
-      <c r="J26" s="4"/>
-    </row>
-    <row r="27" spans="1:10" ht="69" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A27" s="5">
-        <v>17</v>
-      </c>
-      <c r="B27" s="4" t="s">
-        <v>26</v>
-      </c>
-      <c r="C27" s="6" t="s">
+      <c r="F27" s="5" t="s">
+        <v>76</v>
+      </c>
+      <c r="G27" s="3" t="s">
+        <v>129</v>
+      </c>
+      <c r="H27" s="3" t="s">
+        <v>129</v>
+      </c>
+      <c r="I27" s="3" t="s">
+        <v>129</v>
+      </c>
+      <c r="J27" s="3"/>
+    </row>
+    <row r="28" spans="1:10" ht="66" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A28" s="4">
+        <v>18</v>
+      </c>
+      <c r="B28" s="3" t="s">
+        <v>25</v>
+      </c>
+      <c r="C28" s="5" t="s">
         <v>75</v>
       </c>
-      <c r="D27" s="6" t="s">
-        <v>64</v>
-      </c>
-      <c r="E27" s="6" t="s">
+      <c r="D28" s="5" t="s">
+        <v>123</v>
+      </c>
+      <c r="E28" s="5" t="s">
+        <v>77</v>
+      </c>
+      <c r="F28" s="5" t="s">
         <v>102</v>
       </c>
-      <c r="F27" s="6" t="s">
-        <v>77</v>
-      </c>
-      <c r="G27" s="4" t="s">
-        <v>130</v>
-      </c>
-      <c r="H27" s="4"/>
-      <c r="I27" s="4"/>
-      <c r="J27" s="4"/>
-    </row>
-    <row r="28" spans="1:10" ht="66" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A28" s="5">
-        <v>18</v>
-      </c>
-      <c r="B28" s="4" t="s">
-        <v>26</v>
-      </c>
-      <c r="C28" s="6" t="s">
-        <v>76</v>
-      </c>
-      <c r="D28" s="6" t="s">
-        <v>124</v>
-      </c>
-      <c r="E28" s="6" t="s">
-        <v>78</v>
-      </c>
-      <c r="F28" s="6" t="s">
-        <v>103</v>
-      </c>
-      <c r="G28" s="4" t="s">
-        <v>130</v>
-      </c>
-      <c r="H28" s="4"/>
-      <c r="I28" s="4"/>
-      <c r="J28" s="4"/>
+      <c r="G28" s="3" t="s">
+        <v>129</v>
+      </c>
+      <c r="H28" s="3" t="s">
+        <v>129</v>
+      </c>
+      <c r="I28" s="3" t="s">
+        <v>129</v>
+      </c>
+      <c r="J28" s="3"/>
     </row>
     <row r="29" spans="1:10" ht="66" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A29" s="5"/>
-      <c r="B29" s="4"/>
-      <c r="C29" s="6"/>
-      <c r="D29" s="6"/>
-      <c r="E29" s="6"/>
-      <c r="F29" s="6"/>
-      <c r="G29" s="4"/>
-      <c r="H29" s="4"/>
-      <c r="I29" s="4"/>
-      <c r="J29" s="4"/>
+      <c r="A29" s="4"/>
+      <c r="B29" s="3"/>
+      <c r="C29" s="5"/>
+      <c r="D29" s="5"/>
+      <c r="E29" s="5"/>
+      <c r="F29" s="5"/>
+      <c r="G29" s="3"/>
+      <c r="H29" s="3"/>
+      <c r="I29" s="3"/>
+      <c r="J29" s="3"/>
     </row>
     <row r="30" spans="1:10" ht="66" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A30" s="5"/>
-      <c r="B30" s="4"/>
-      <c r="C30" s="6"/>
-      <c r="D30" s="4"/>
-      <c r="E30" s="6"/>
-      <c r="F30" s="6"/>
-      <c r="G30" s="4"/>
-      <c r="H30" s="4"/>
-      <c r="I30" s="4"/>
-      <c r="J30" s="4"/>
+      <c r="A30" s="4"/>
+      <c r="B30" s="3"/>
+      <c r="C30" s="5"/>
+      <c r="D30" s="3"/>
+      <c r="E30" s="5"/>
+      <c r="F30" s="5"/>
+      <c r="G30" s="3"/>
+      <c r="H30" s="3"/>
+      <c r="I30" s="3"/>
+      <c r="J30" s="3"/>
     </row>
     <row r="31" spans="1:10" ht="66" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A31" s="5"/>
-      <c r="B31" s="4"/>
-      <c r="C31" s="6"/>
-      <c r="D31" s="4"/>
-      <c r="E31" s="4"/>
-      <c r="F31" s="4"/>
-      <c r="G31" s="4"/>
-      <c r="H31" s="4"/>
-      <c r="I31" s="4"/>
-      <c r="J31" s="4"/>
+      <c r="A31" s="4"/>
+      <c r="B31" s="3"/>
+      <c r="C31" s="5"/>
+      <c r="D31" s="3"/>
+      <c r="E31" s="3"/>
+      <c r="F31" s="3"/>
+      <c r="G31" s="3"/>
+      <c r="H31" s="3"/>
+      <c r="I31" s="3"/>
+      <c r="J31" s="3"/>
     </row>
     <row r="32" spans="1:10" ht="66" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A32" s="5"/>
-      <c r="B32" s="4"/>
-      <c r="C32" s="4"/>
-      <c r="D32" s="4"/>
-      <c r="E32" s="4"/>
-      <c r="F32" s="4"/>
-      <c r="G32" s="4"/>
-      <c r="H32" s="4"/>
-      <c r="I32" s="4"/>
-      <c r="J32" s="4"/>
+      <c r="A32" s="4"/>
+      <c r="B32" s="3"/>
+      <c r="C32" s="3"/>
+      <c r="D32" s="3"/>
+      <c r="E32" s="3"/>
+      <c r="F32" s="3"/>
+      <c r="G32" s="3"/>
+      <c r="H32" s="3"/>
+      <c r="I32" s="3"/>
+      <c r="J32" s="3"/>
     </row>
     <row r="33" spans="1:10" ht="66" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A33" s="5"/>
-      <c r="B33" s="4"/>
-      <c r="C33" s="4"/>
-      <c r="D33" s="4"/>
-      <c r="E33" s="4"/>
-      <c r="F33" s="4"/>
-      <c r="G33" s="4"/>
-      <c r="H33" s="4"/>
-      <c r="I33" s="4"/>
-      <c r="J33" s="4"/>
+      <c r="A33" s="4"/>
+      <c r="B33" s="3"/>
+      <c r="C33" s="3"/>
+      <c r="D33" s="3"/>
+      <c r="E33" s="3"/>
+      <c r="F33" s="3"/>
+      <c r="G33" s="3"/>
+      <c r="H33" s="3"/>
+      <c r="I33" s="3"/>
+      <c r="J33" s="3"/>
     </row>
     <row r="34" spans="1:10" ht="66" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A34" s="5"/>
-      <c r="B34" s="4"/>
-      <c r="C34" s="4"/>
-      <c r="D34" s="4"/>
-      <c r="E34" s="4"/>
-      <c r="F34" s="4"/>
-      <c r="G34" s="4"/>
-      <c r="H34" s="4"/>
-      <c r="I34" s="4"/>
-      <c r="J34" s="4"/>
+      <c r="A34" s="4"/>
+      <c r="B34" s="3"/>
+      <c r="C34" s="3"/>
+      <c r="D34" s="3"/>
+      <c r="E34" s="3"/>
+      <c r="F34" s="3"/>
+      <c r="G34" s="3"/>
+      <c r="H34" s="3"/>
+      <c r="I34" s="3"/>
+      <c r="J34" s="3"/>
     </row>
     <row r="35" spans="1:10" ht="66" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A35" s="5"/>
-      <c r="B35" s="4"/>
-      <c r="C35" s="4"/>
-      <c r="D35" s="4"/>
-      <c r="E35" s="4"/>
-      <c r="F35" s="4"/>
-      <c r="G35" s="4"/>
-      <c r="H35" s="4"/>
-      <c r="I35" s="4"/>
-      <c r="J35" s="4"/>
+      <c r="A35" s="4"/>
+      <c r="B35" s="3"/>
+      <c r="C35" s="3"/>
+      <c r="D35" s="3"/>
+      <c r="E35" s="3"/>
+      <c r="F35" s="3"/>
+      <c r="G35" s="3"/>
+      <c r="H35" s="3"/>
+      <c r="I35" s="3"/>
+      <c r="J35" s="3"/>
     </row>
     <row r="36" spans="1:10" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A36" s="5"/>
-      <c r="B36" s="4"/>
-      <c r="C36" s="4"/>
-      <c r="D36" s="4"/>
-      <c r="E36" s="4"/>
-      <c r="F36" s="4"/>
-      <c r="G36" s="4"/>
-      <c r="H36" s="4"/>
-      <c r="I36" s="4"/>
-      <c r="J36" s="4"/>
+      <c r="A36" s="4"/>
+      <c r="B36" s="3"/>
+      <c r="C36" s="3"/>
+      <c r="D36" s="3"/>
+      <c r="E36" s="3"/>
+      <c r="F36" s="3"/>
+      <c r="G36" s="3"/>
+      <c r="H36" s="3"/>
+      <c r="I36" s="3"/>
+      <c r="J36" s="3"/>
     </row>
     <row r="37" spans="1:10" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A37" s="5"/>
-      <c r="B37" s="4"/>
-      <c r="C37" s="4"/>
-      <c r="D37" s="4"/>
-      <c r="E37" s="4"/>
-      <c r="F37" s="4"/>
-      <c r="G37" s="4"/>
-      <c r="H37" s="4"/>
-      <c r="I37" s="4"/>
-      <c r="J37" s="4"/>
+      <c r="A37" s="4"/>
+      <c r="B37" s="3"/>
+      <c r="C37" s="3"/>
+      <c r="D37" s="3"/>
+      <c r="E37" s="3"/>
+      <c r="F37" s="3"/>
+      <c r="G37" s="3"/>
+      <c r="H37" s="3"/>
+      <c r="I37" s="3"/>
+      <c r="J37" s="3"/>
     </row>
     <row r="38" spans="1:10" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A38" s="5"/>
-      <c r="B38" s="4"/>
-      <c r="C38" s="4"/>
-      <c r="D38" s="4"/>
-      <c r="E38" s="4"/>
-      <c r="F38" s="4"/>
-      <c r="G38" s="4"/>
-      <c r="H38" s="4"/>
-      <c r="I38" s="4"/>
-      <c r="J38" s="4"/>
+      <c r="A38" s="4"/>
+      <c r="B38" s="3"/>
+      <c r="C38" s="3"/>
+      <c r="D38" s="3"/>
+      <c r="E38" s="3"/>
+      <c r="F38" s="3"/>
+      <c r="G38" s="3"/>
+      <c r="H38" s="3"/>
+      <c r="I38" s="3"/>
+      <c r="J38" s="3"/>
     </row>
     <row r="39" spans="1:10" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A39" s="5"/>
-      <c r="B39" s="4"/>
-      <c r="C39" s="4"/>
-      <c r="D39" s="4"/>
-      <c r="E39" s="4"/>
-      <c r="F39" s="4"/>
-      <c r="G39" s="4"/>
-      <c r="H39" s="4"/>
-      <c r="I39" s="4"/>
-      <c r="J39" s="4"/>
+      <c r="A39" s="4"/>
+      <c r="B39" s="3"/>
+      <c r="C39" s="3"/>
+      <c r="D39" s="3"/>
+      <c r="E39" s="3"/>
+      <c r="F39" s="3"/>
+      <c r="G39" s="3"/>
+      <c r="H39" s="3"/>
+      <c r="I39" s="3"/>
+      <c r="J39" s="3"/>
     </row>
     <row r="40" spans="1:10" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A40" s="5"/>
-      <c r="B40" s="4"/>
-      <c r="C40" s="4"/>
-      <c r="D40" s="4"/>
-      <c r="E40" s="4"/>
-      <c r="F40" s="4"/>
-      <c r="G40" s="4"/>
-      <c r="H40" s="4"/>
-      <c r="I40" s="4"/>
-      <c r="J40" s="4"/>
+      <c r="A40" s="4"/>
+      <c r="B40" s="3"/>
+      <c r="C40" s="3"/>
+      <c r="D40" s="3"/>
+      <c r="E40" s="3"/>
+      <c r="F40" s="3"/>
+      <c r="G40" s="3"/>
+      <c r="H40" s="3"/>
+      <c r="I40" s="3"/>
+      <c r="J40" s="3"/>
     </row>
     <row r="41" spans="1:10" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A41" s="5"/>
-      <c r="B41" s="4"/>
-      <c r="C41" s="4"/>
-      <c r="D41" s="4"/>
-      <c r="E41" s="4"/>
-      <c r="F41" s="4"/>
-      <c r="G41" s="4"/>
-      <c r="H41" s="4"/>
-      <c r="I41" s="4"/>
-      <c r="J41" s="4"/>
+      <c r="A41" s="4"/>
+      <c r="B41" s="3"/>
+      <c r="C41" s="3"/>
+      <c r="D41" s="3"/>
+      <c r="E41" s="3"/>
+      <c r="F41" s="3"/>
+      <c r="G41" s="3"/>
+      <c r="H41" s="3"/>
+      <c r="I41" s="3"/>
+      <c r="J41" s="3"/>
     </row>
   </sheetData>
   <mergeCells count="23">
@@ -2838,7 +2910,7 @@
   <dimension ref="A2:J20"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C6" sqref="C6:J6"/>
+      <selection activeCell="C3" sqref="C3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -2857,14 +2929,14 @@
         <v>22</v>
       </c>
       <c r="B2" s="23"/>
-      <c r="C2" s="8"/>
-      <c r="D2" s="8"/>
-      <c r="E2" s="8"/>
-      <c r="F2" s="8"/>
-      <c r="G2" s="8"/>
-      <c r="H2" s="8"/>
-      <c r="I2" s="8"/>
-      <c r="J2" s="9" t="s">
+      <c r="C2" s="7"/>
+      <c r="D2" s="7"/>
+      <c r="E2" s="7"/>
+      <c r="F2" s="7"/>
+      <c r="G2" s="7"/>
+      <c r="H2" s="7"/>
+      <c r="I2" s="7"/>
+      <c r="J2" s="8" t="s">
         <v>23</v>
       </c>
     </row>
@@ -2873,14 +2945,14 @@
         <v>11</v>
       </c>
       <c r="B3" s="16"/>
-      <c r="C3" s="11" t="s">
-        <v>47</v>
-      </c>
-      <c r="D3" s="14" t="s">
+      <c r="C3" s="10" t="s">
+        <v>46</v>
+      </c>
+      <c r="D3" s="13" t="s">
         <v>15</v>
       </c>
       <c r="E3" s="24" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="F3" s="19"/>
       <c r="G3" s="25" t="s">
@@ -2890,8 +2962,8 @@
         <v>18</v>
       </c>
       <c r="I3" s="16"/>
-      <c r="J3" s="3" t="s">
-        <v>25</v>
+      <c r="J3" s="14">
+        <v>43822</v>
       </c>
     </row>
     <row r="4" spans="1:10" ht="24.95" customHeight="1" x14ac:dyDescent="0.3">
@@ -2899,14 +2971,14 @@
         <v>12</v>
       </c>
       <c r="B4" s="16"/>
-      <c r="C4" s="4" t="s">
-        <v>45</v>
-      </c>
-      <c r="D4" s="14" t="s">
+      <c r="C4" s="3" t="s">
+        <v>44</v>
+      </c>
+      <c r="D4" s="13" t="s">
         <v>16</v>
       </c>
       <c r="E4" s="24" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="F4" s="19"/>
       <c r="G4" s="26"/>
@@ -2914,8 +2986,8 @@
         <v>19</v>
       </c>
       <c r="I4" s="16"/>
-      <c r="J4" s="3" t="s">
-        <v>25</v>
+      <c r="J4" s="14">
+        <v>43825</v>
       </c>
     </row>
     <row r="5" spans="1:10" ht="24.95" customHeight="1" x14ac:dyDescent="0.3">
@@ -2924,13 +2996,13 @@
       </c>
       <c r="B5" s="16"/>
       <c r="C5" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="D5" s="13" t="s">
+        <v>17</v>
+      </c>
+      <c r="E5" s="24" t="s">
         <v>48</v>
-      </c>
-      <c r="D5" s="14" t="s">
-        <v>17</v>
-      </c>
-      <c r="E5" s="24" t="s">
-        <v>49</v>
       </c>
       <c r="F5" s="19"/>
       <c r="G5" s="27"/>
@@ -2938,8 +3010,8 @@
         <v>20</v>
       </c>
       <c r="I5" s="16"/>
-      <c r="J5" s="3" t="s">
-        <v>25</v>
+      <c r="J5" s="14">
+        <v>43829</v>
       </c>
     </row>
     <row r="6" spans="1:10" ht="70.5" customHeight="1" x14ac:dyDescent="0.3">
@@ -2948,7 +3020,7 @@
       </c>
       <c r="B6" s="16"/>
       <c r="C6" s="17" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="D6" s="18"/>
       <c r="E6" s="18"/>
@@ -2964,7 +3036,7 @@
       </c>
       <c r="B7" s="16"/>
       <c r="C7" s="17" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="D7" s="18"/>
       <c r="E7" s="18"/>
@@ -2977,179 +3049,223 @@
     <row r="8" spans="1:10" ht="24.75" customHeight="1" x14ac:dyDescent="0.3"/>
     <row r="9" spans="1:10" ht="24.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A9" s="34" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="B9" s="34"/>
       <c r="C9" s="34" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="D9" s="34"/>
       <c r="E9" s="34"/>
       <c r="F9" s="34"/>
       <c r="G9" s="34"/>
       <c r="H9" s="34"/>
-      <c r="I9" s="7" t="s">
-        <v>42</v>
-      </c>
-      <c r="J9" s="7" t="s">
+      <c r="I9" s="6" t="s">
         <v>41</v>
+      </c>
+      <c r="J9" s="6" t="s">
+        <v>40</v>
       </c>
     </row>
     <row r="10" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A10" s="28" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="B10" s="29"/>
       <c r="C10" s="24" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="D10" s="18"/>
       <c r="E10" s="18"/>
       <c r="F10" s="18"/>
       <c r="G10" s="18"/>
       <c r="H10" s="19"/>
-      <c r="I10" s="4"/>
-      <c r="J10" s="4"/>
+      <c r="I10" s="3" t="s">
+        <v>131</v>
+      </c>
+      <c r="J10" s="3" t="s">
+        <v>129</v>
+      </c>
     </row>
     <row r="11" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A11" s="30"/>
       <c r="B11" s="31"/>
       <c r="C11" s="24" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="D11" s="18"/>
       <c r="E11" s="18"/>
       <c r="F11" s="18"/>
       <c r="G11" s="18"/>
       <c r="H11" s="19"/>
-      <c r="I11" s="4"/>
-      <c r="J11" s="4"/>
+      <c r="I11" s="3" t="s">
+        <v>131</v>
+      </c>
+      <c r="J11" s="3" t="s">
+        <v>129</v>
+      </c>
     </row>
     <row r="12" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A12" s="30"/>
       <c r="B12" s="31"/>
       <c r="C12" s="24" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="D12" s="18"/>
       <c r="E12" s="18"/>
       <c r="F12" s="18"/>
       <c r="G12" s="18"/>
       <c r="H12" s="19"/>
-      <c r="I12" s="4"/>
-      <c r="J12" s="4"/>
+      <c r="I12" s="3" t="s">
+        <v>131</v>
+      </c>
+      <c r="J12" s="3" t="s">
+        <v>129</v>
+      </c>
     </row>
     <row r="13" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A13" s="30"/>
       <c r="B13" s="31"/>
       <c r="C13" s="24" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="D13" s="18"/>
       <c r="E13" s="18"/>
       <c r="F13" s="18"/>
       <c r="G13" s="18"/>
       <c r="H13" s="19"/>
-      <c r="I13" s="4"/>
-      <c r="J13" s="4"/>
+      <c r="I13" s="3" t="s">
+        <v>131</v>
+      </c>
+      <c r="J13" s="3" t="s">
+        <v>129</v>
+      </c>
     </row>
     <row r="14" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A14" s="30"/>
       <c r="B14" s="31"/>
       <c r="C14" s="24" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="D14" s="18"/>
       <c r="E14" s="18"/>
       <c r="F14" s="18"/>
       <c r="G14" s="18"/>
       <c r="H14" s="19"/>
-      <c r="I14" s="4"/>
-      <c r="J14" s="4"/>
+      <c r="I14" s="3" t="s">
+        <v>131</v>
+      </c>
+      <c r="J14" s="3" t="s">
+        <v>129</v>
+      </c>
     </row>
     <row r="15" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A15" s="30"/>
       <c r="B15" s="31"/>
       <c r="C15" s="24" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="D15" s="18"/>
       <c r="E15" s="18"/>
       <c r="F15" s="18"/>
       <c r="G15" s="18"/>
       <c r="H15" s="19"/>
-      <c r="I15" s="4"/>
-      <c r="J15" s="4"/>
+      <c r="I15" s="3" t="s">
+        <v>131</v>
+      </c>
+      <c r="J15" s="3" t="s">
+        <v>129</v>
+      </c>
     </row>
     <row r="16" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A16" s="30"/>
       <c r="B16" s="31"/>
       <c r="C16" s="24" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="D16" s="18"/>
       <c r="E16" s="18"/>
       <c r="F16" s="18"/>
       <c r="G16" s="18"/>
       <c r="H16" s="19"/>
-      <c r="I16" s="4"/>
-      <c r="J16" s="4"/>
+      <c r="I16" s="3" t="s">
+        <v>131</v>
+      </c>
+      <c r="J16" s="3" t="s">
+        <v>129</v>
+      </c>
     </row>
     <row r="17" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A17" s="30"/>
       <c r="B17" s="31"/>
       <c r="C17" s="24" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="D17" s="18"/>
       <c r="E17" s="18"/>
       <c r="F17" s="18"/>
       <c r="G17" s="18"/>
       <c r="H17" s="19"/>
-      <c r="I17" s="4"/>
-      <c r="J17" s="4"/>
+      <c r="I17" s="3" t="s">
+        <v>131</v>
+      </c>
+      <c r="J17" s="3" t="s">
+        <v>129</v>
+      </c>
     </row>
     <row r="18" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A18" s="30"/>
       <c r="B18" s="31"/>
       <c r="C18" s="24" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="D18" s="18"/>
       <c r="E18" s="18"/>
       <c r="F18" s="18"/>
       <c r="G18" s="18"/>
       <c r="H18" s="19"/>
-      <c r="I18" s="4"/>
-      <c r="J18" s="4"/>
+      <c r="I18" s="3" t="s">
+        <v>131</v>
+      </c>
+      <c r="J18" s="3" t="s">
+        <v>129</v>
+      </c>
     </row>
     <row r="19" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A19" s="30"/>
       <c r="B19" s="31"/>
       <c r="C19" s="24" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="D19" s="18"/>
       <c r="E19" s="18"/>
       <c r="F19" s="18"/>
       <c r="G19" s="18"/>
       <c r="H19" s="19"/>
-      <c r="I19" s="4"/>
-      <c r="J19" s="4"/>
+      <c r="I19" s="3" t="s">
+        <v>131</v>
+      </c>
+      <c r="J19" s="3" t="s">
+        <v>129</v>
+      </c>
     </row>
     <row r="20" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A20" s="32"/>
       <c r="B20" s="33"/>
       <c r="C20" s="24" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="D20" s="18"/>
       <c r="E20" s="18"/>
       <c r="F20" s="18"/>
       <c r="G20" s="18"/>
       <c r="H20" s="19"/>
-      <c r="I20" s="4"/>
-      <c r="J20" s="4"/>
+      <c r="I20" s="3" t="s">
+        <v>131</v>
+      </c>
+      <c r="J20" s="3" t="s">
+        <v>129</v>
+      </c>
     </row>
   </sheetData>
   <mergeCells count="29">
@@ -3209,8 +3325,8 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A1" s="10" t="s">
-        <v>43</v>
+      <c r="A1" s="9" t="s">
+        <v>42</v>
       </c>
     </row>
     <row r="2" spans="1:10" x14ac:dyDescent="0.3">
@@ -3225,7 +3341,7 @@
       <c r="G2" s="2"/>
       <c r="H2" s="2"/>
       <c r="I2" s="2"/>
-      <c r="J2" s="9" t="s">
+      <c r="J2" s="8" t="s">
         <v>23</v>
       </c>
     </row>
@@ -3234,14 +3350,14 @@
         <v>11</v>
       </c>
       <c r="B3" s="16"/>
-      <c r="C3" s="11" t="s">
-        <v>47</v>
-      </c>
-      <c r="D3" s="7" t="s">
+      <c r="C3" s="10" t="s">
+        <v>46</v>
+      </c>
+      <c r="D3" s="6" t="s">
         <v>15</v>
       </c>
       <c r="E3" s="24" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="F3" s="18"/>
       <c r="G3" s="18"/>
@@ -3254,14 +3370,14 @@
         <v>12</v>
       </c>
       <c r="B4" s="16"/>
-      <c r="C4" s="4" t="s">
-        <v>46</v>
-      </c>
-      <c r="D4" s="7" t="s">
+      <c r="C4" s="3" t="s">
+        <v>45</v>
+      </c>
+      <c r="D4" s="6" t="s">
         <v>16</v>
       </c>
       <c r="E4" s="24" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="F4" s="18"/>
       <c r="G4" s="18"/>
@@ -3331,7 +3447,7 @@
     </row>
     <row r="11" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A11" s="24" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="B11" s="18"/>
       <c r="C11" s="18"/>
@@ -3357,7 +3473,7 @@
     </row>
     <row r="13" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A13" s="24" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="B13" s="18"/>
       <c r="C13" s="18"/>
@@ -3383,7 +3499,7 @@
     </row>
     <row r="15" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A15" s="24" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="B15" s="18"/>
       <c r="C15" s="18"/>
@@ -3409,7 +3525,7 @@
     </row>
     <row r="17" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A17" s="24" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="B17" s="18"/>
       <c r="C17" s="18"/>
@@ -3435,7 +3551,7 @@
     </row>
     <row r="19" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A19" s="24" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="B19" s="18"/>
       <c r="C19" s="18"/>
@@ -3461,7 +3577,7 @@
     </row>
     <row r="21" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A21" s="24" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="B21" s="18"/>
       <c r="C21" s="18"/>
@@ -3487,7 +3603,7 @@
     </row>
     <row r="23" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A23" s="24" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="B23" s="18"/>
       <c r="C23" s="18"/>
@@ -3513,7 +3629,7 @@
     </row>
     <row r="25" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A25" s="24" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="B25" s="18"/>
       <c r="C25" s="18"/>
@@ -3539,7 +3655,7 @@
     </row>
     <row r="27" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A27" s="24" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="B27" s="18"/>
       <c r="C27" s="18"/>
@@ -3565,7 +3681,7 @@
     </row>
     <row r="29" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A29" s="24" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="B29" s="18"/>
       <c r="C29" s="18"/>
@@ -3591,7 +3707,7 @@
     </row>
     <row r="31" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A31" s="24" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="B31" s="18"/>
       <c r="C31" s="18"/>
@@ -3617,7 +3733,7 @@
     </row>
     <row r="33" spans="1:10" ht="85.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A33" s="17" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="B33" s="18"/>
       <c r="C33" s="18"/>
@@ -3643,7 +3759,7 @@
     </row>
     <row r="35" spans="1:10" ht="66" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A35" s="17" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="B35" s="18"/>
       <c r="C35" s="18"/>
@@ -3669,7 +3785,7 @@
     </row>
     <row r="37" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A37" s="24" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="B37" s="18"/>
       <c r="C37" s="18"/>
@@ -3695,7 +3811,7 @@
     </row>
     <row r="39" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A39" s="24" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="B39" s="18"/>
       <c r="C39" s="18"/>
@@ -3721,7 +3837,7 @@
     </row>
     <row r="41" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A41" s="24" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="B41" s="18"/>
       <c r="C41" s="18"/>
@@ -3747,7 +3863,7 @@
     </row>
     <row r="43" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A43" s="24" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="B43" s="18"/>
       <c r="C43" s="18"/>
@@ -3773,7 +3889,7 @@
     </row>
     <row r="45" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A45" s="24" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="B45" s="18"/>
       <c r="C45" s="18"/>
